--- a/Maintenance may june.xlsx
+++ b/Maintenance may june.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A52103F-69BC-4CCF-B65F-AD9696FC7EDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAB66F-C519-44B0-9CB4-7D3EDF0454AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
   <sheets>
     <sheet name="May June maintenance+arrears" sheetId="14" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="242">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -824,12 +824,39 @@
   <si>
     <t xml:space="preserve">Amit </t>
   </si>
+  <si>
+    <t>Sandeep</t>
+  </si>
+  <si>
+    <t>13th may</t>
+  </si>
+  <si>
+    <t>12th many</t>
+  </si>
+  <si>
+    <t>14th may</t>
+  </si>
+  <si>
+    <t>12ty may</t>
+  </si>
+  <si>
+    <t>12th may</t>
+  </si>
+  <si>
+    <t>may june receipts</t>
+  </si>
+  <si>
+    <t>till april receipts</t>
+  </si>
+  <si>
+    <t>always</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,6 +1046,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="3" tint="0.249977111117893"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1117,7 +1151,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="120">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1388,13 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="4" borderId="3" xfId="4" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1412,12 +1439,13 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Explanatory Text" xfId="5" builtinId="53"/>
@@ -1760,31 +1788,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C56038-014C-446F-8809-AF3D7B4BA2C5}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B61" workbookViewId="0">
-      <selection activeCell="P64" sqref="P64"/>
+    <sheetView topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="0" style="57" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" style="58" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="59" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.42578125" style="101" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="97" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="97" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" style="94" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" style="97" customWidth="1"/>
-    <col min="10" max="10" width="15.85546875" style="60" customWidth="1"/>
-    <col min="11" max="11" width="9.85546875" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="89" customWidth="1"/>
-    <col min="13" max="13" width="14.28515625" style="89" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="50" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" style="50" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="50"/>
+    <col min="2" max="2" width="8.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.33203125" style="58" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="59" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.44140625" style="101" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="97" customWidth="1"/>
+    <col min="7" max="7" width="16.5546875" style="97" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" style="94" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" style="97" customWidth="1"/>
+    <col min="10" max="10" width="15.88671875" style="60" customWidth="1"/>
+    <col min="11" max="11" width="9.88671875" style="50" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" style="89" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="89" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.44140625" style="50" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" style="50" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.109375" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="88" customFormat="1" ht="56.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" s="88" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A1" s="82" t="s">
         <v>0</v>
       </c>
@@ -1834,7 +1862,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" s="45">
         <v>1</v>
       </c>
@@ -1869,14 +1897,23 @@
         <v>12846</v>
       </c>
       <c r="K2" s="49">
-        <v>0</v>
-      </c>
-      <c r="O2" s="105">
+        <v>12846</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="M2" s="89" t="s">
+        <v>233</v>
+      </c>
+      <c r="N2" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O2" s="50">
         <f t="shared" ref="O2:O54" si="0">J2-K2</f>
-        <v>12846</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" s="45">
         <v>2</v>
       </c>
@@ -1902,7 +1939,7 @@
       <c r="H3" s="94">
         <v>0</v>
       </c>
-      <c r="I3" s="106">
+      <c r="I3" s="75">
         <f t="shared" ref="I3:I66" si="1">2*ROUND(E3* F3,)</f>
         <v>6974</v>
       </c>
@@ -1913,12 +1950,12 @@
       <c r="K3" s="49">
         <v>0</v>
       </c>
-      <c r="O3" s="105">
+      <c r="O3" s="50">
         <f t="shared" si="0"/>
         <v>6974</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A4" s="45">
         <v>3</v>
       </c>
@@ -1944,7 +1981,7 @@
       <c r="H4" s="94">
         <v>0</v>
       </c>
-      <c r="I4" s="106">
+      <c r="I4" s="75">
         <f t="shared" si="1"/>
         <v>14174</v>
       </c>
@@ -1964,12 +2001,12 @@
       <c r="N4" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O4" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O4" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" s="45">
         <v>4</v>
       </c>
@@ -1995,7 +2032,7 @@
       <c r="H5" s="94">
         <v>0</v>
       </c>
-      <c r="I5" s="106">
+      <c r="I5" s="75">
         <f t="shared" si="1"/>
         <v>5520</v>
       </c>
@@ -2004,14 +2041,23 @@
         <v>5520</v>
       </c>
       <c r="K5" s="49">
-        <v>0</v>
-      </c>
-      <c r="O5" s="105">
-        <f t="shared" si="0"/>
         <v>5520</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L5" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="89" t="s">
+        <v>183</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O5" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" s="45">
         <v>5</v>
       </c>
@@ -2037,7 +2083,7 @@
       <c r="H6" s="94">
         <v>0</v>
       </c>
-      <c r="I6" s="106">
+      <c r="I6" s="75">
         <f t="shared" si="1"/>
         <v>5548</v>
       </c>
@@ -2048,12 +2094,12 @@
       <c r="K6" s="49">
         <v>0</v>
       </c>
-      <c r="O6" s="105">
+      <c r="O6" s="50">
         <f t="shared" si="0"/>
         <v>5548</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="67" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" s="67" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A7" s="63">
         <v>6</v>
       </c>
@@ -2079,7 +2125,7 @@
       <c r="H7" s="94">
         <v>10465</v>
       </c>
-      <c r="I7" s="106">
+      <c r="I7" s="75">
         <f t="shared" si="1"/>
         <v>10914</v>
       </c>
@@ -2092,12 +2138,12 @@
       </c>
       <c r="L7" s="90"/>
       <c r="M7" s="90"/>
-      <c r="O7" s="105">
+      <c r="O7" s="50">
         <f t="shared" si="0"/>
         <v>21379</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="76" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" s="76" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A8" s="70">
         <v>7</v>
       </c>
@@ -2123,7 +2169,7 @@
       <c r="H8" s="94">
         <v>-500</v>
       </c>
-      <c r="I8" s="106">
+      <c r="I8" s="75">
         <f t="shared" si="1"/>
         <v>9180</v>
       </c>
@@ -2136,12 +2182,12 @@
       </c>
       <c r="L8" s="91"/>
       <c r="M8" s="91"/>
-      <c r="O8" s="105">
+      <c r="O8" s="50">
         <f t="shared" si="0"/>
         <v>8680</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="63">
         <v>8</v>
       </c>
@@ -2167,7 +2213,7 @@
       <c r="H9" s="94">
         <v>8519</v>
       </c>
-      <c r="I9" s="106">
+      <c r="I9" s="75">
         <f t="shared" si="1"/>
         <v>4540</v>
       </c>
@@ -2180,12 +2226,12 @@
       </c>
       <c r="L9" s="89"/>
       <c r="M9" s="89"/>
-      <c r="O9" s="105">
+      <c r="O9" s="50">
         <f t="shared" si="0"/>
         <v>13059</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="63">
         <v>9</v>
       </c>
@@ -2209,7 +2255,7 @@
       <c r="H10" s="94">
         <v>5623</v>
       </c>
-      <c r="I10" s="106">
+      <c r="I10" s="75">
         <f t="shared" si="1"/>
         <v>2996</v>
       </c>
@@ -2222,12 +2268,12 @@
       </c>
       <c r="L10" s="89"/>
       <c r="M10" s="89"/>
-      <c r="O10" s="105">
+      <c r="O10" s="50">
         <f t="shared" si="0"/>
         <v>8619</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" s="45">
         <v>10</v>
       </c>
@@ -2253,7 +2299,7 @@
       <c r="H11" s="94">
         <v>0</v>
       </c>
-      <c r="I11" s="106">
+      <c r="I11" s="75">
         <f t="shared" si="1"/>
         <v>5384</v>
       </c>
@@ -2262,14 +2308,20 @@
         <v>5384</v>
       </c>
       <c r="K11" s="49">
-        <v>0</v>
-      </c>
-      <c r="O11" s="105">
-        <f t="shared" si="0"/>
         <v>5384</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="L11" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="M11" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="O11" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="36" x14ac:dyDescent="0.35">
       <c r="A12" s="45">
         <v>11</v>
       </c>
@@ -2295,7 +2347,7 @@
       <c r="H12" s="94">
         <v>0</v>
       </c>
-      <c r="I12" s="106">
+      <c r="I12" s="75">
         <f t="shared" si="1"/>
         <v>6020</v>
       </c>
@@ -2306,12 +2358,12 @@
       <c r="K12" s="49">
         <v>0</v>
       </c>
-      <c r="O12" s="105">
+      <c r="O12" s="50">
         <f t="shared" si="0"/>
         <v>6020</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" s="45">
         <v>12</v>
       </c>
@@ -2337,7 +2389,7 @@
       <c r="H13" s="94">
         <v>0</v>
       </c>
-      <c r="I13" s="106">
+      <c r="I13" s="75">
         <f t="shared" si="1"/>
         <v>7274</v>
       </c>
@@ -2346,14 +2398,20 @@
         <v>7274</v>
       </c>
       <c r="K13" s="49">
-        <v>0</v>
-      </c>
-      <c r="O13" s="105">
-        <f t="shared" si="0"/>
         <v>7274</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L13" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="M13" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="O13" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" s="45">
         <v>13</v>
       </c>
@@ -2379,7 +2437,7 @@
       <c r="H14" s="94">
         <v>0</v>
       </c>
-      <c r="I14" s="106">
+      <c r="I14" s="75">
         <f t="shared" si="1"/>
         <v>4912</v>
       </c>
@@ -2388,14 +2446,20 @@
         <v>4912</v>
       </c>
       <c r="K14" s="49">
-        <v>0</v>
-      </c>
-      <c r="O14" s="105">
-        <f t="shared" si="0"/>
         <v>4912</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L14" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="M14" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="O14" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" s="45">
         <v>14</v>
       </c>
@@ -2421,7 +2485,7 @@
       <c r="H15" s="94">
         <v>0</v>
       </c>
-      <c r="I15" s="106">
+      <c r="I15" s="75">
         <f t="shared" si="1"/>
         <v>3468</v>
       </c>
@@ -2441,7 +2505,7 @@
       <c r="N15" s="50" t="s">
         <v>222</v>
       </c>
-      <c r="O15" s="105">
+      <c r="O15" s="50">
         <f t="shared" si="0"/>
         <v>1734</v>
       </c>
@@ -2449,7 +2513,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" s="45">
         <v>15</v>
       </c>
@@ -2475,7 +2539,7 @@
       <c r="H16" s="94">
         <v>0</v>
       </c>
-      <c r="I16" s="106">
+      <c r="I16" s="75">
         <f t="shared" si="1"/>
         <v>8172</v>
       </c>
@@ -2484,14 +2548,23 @@
         <v>8172</v>
       </c>
       <c r="K16" s="49">
-        <v>0</v>
-      </c>
-      <c r="O16" s="105">
-        <f t="shared" si="0"/>
         <v>8172</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L16" s="89" t="s">
+        <v>237</v>
+      </c>
+      <c r="M16" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="N16" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O16" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" s="45">
         <v>16</v>
       </c>
@@ -2517,7 +2590,7 @@
       <c r="H17" s="94">
         <v>0</v>
       </c>
-      <c r="I17" s="106">
+      <c r="I17" s="75">
         <f t="shared" si="1"/>
         <v>6528</v>
       </c>
@@ -2528,12 +2601,12 @@
       <c r="K17" s="49">
         <v>0</v>
       </c>
-      <c r="O17" s="105">
+      <c r="O17" s="50">
         <f t="shared" si="0"/>
         <v>6528</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="45">
         <v>17</v>
       </c>
@@ -2559,7 +2632,7 @@
       <c r="H18" s="94">
         <v>1</v>
       </c>
-      <c r="I18" s="106">
+      <c r="I18" s="75">
         <f t="shared" si="1"/>
         <v>5402</v>
       </c>
@@ -2570,12 +2643,12 @@
       <c r="K18" s="49">
         <v>0</v>
       </c>
-      <c r="O18" s="105">
+      <c r="O18" s="50">
         <f t="shared" si="0"/>
         <v>5403</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" s="45">
         <v>18</v>
       </c>
@@ -2601,7 +2674,7 @@
       <c r="H19" s="94">
         <v>0</v>
       </c>
-      <c r="I19" s="106">
+      <c r="I19" s="75">
         <f t="shared" si="1"/>
         <v>5676</v>
       </c>
@@ -2612,12 +2685,12 @@
       <c r="K19" s="49">
         <v>0</v>
       </c>
-      <c r="O19" s="105">
+      <c r="O19" s="50">
         <f t="shared" si="0"/>
         <v>5676</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A20" s="45">
         <v>19</v>
       </c>
@@ -2643,7 +2716,7 @@
       <c r="H20" s="94">
         <v>29</v>
       </c>
-      <c r="I20" s="106">
+      <c r="I20" s="75">
         <f t="shared" si="1"/>
         <v>5102</v>
       </c>
@@ -2652,14 +2725,20 @@
         <v>5131</v>
       </c>
       <c r="K20" s="49">
-        <v>0</v>
-      </c>
-      <c r="O20" s="105">
-        <f t="shared" si="0"/>
         <v>5131</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="L20" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="M20" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A21" s="45">
         <v>20</v>
       </c>
@@ -2685,7 +2764,7 @@
       <c r="H21" s="94">
         <v>0</v>
       </c>
-      <c r="I21" s="106">
+      <c r="I21" s="75">
         <f t="shared" si="1"/>
         <v>3778</v>
       </c>
@@ -2705,12 +2784,12 @@
       <c r="N21" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O21" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="O21" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" ht="54" x14ac:dyDescent="0.35">
       <c r="A22" s="45">
         <v>21</v>
       </c>
@@ -2736,7 +2815,7 @@
       <c r="H22" s="94">
         <v>0</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I22" s="75">
         <f t="shared" si="1"/>
         <v>6292</v>
       </c>
@@ -2747,12 +2826,12 @@
       <c r="K22" s="49">
         <v>0</v>
       </c>
-      <c r="O22" s="105">
+      <c r="O22" s="50">
         <f t="shared" si="0"/>
         <v>6292</v>
       </c>
     </row>
-    <row r="23" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="63">
         <v>22</v>
       </c>
@@ -2778,7 +2857,7 @@
       <c r="H23" s="94">
         <v>13427</v>
       </c>
-      <c r="I23" s="106">
+      <c r="I23" s="75">
         <f t="shared" si="1"/>
         <v>7156</v>
       </c>
@@ -2791,12 +2870,12 @@
       </c>
       <c r="L23" s="89"/>
       <c r="M23" s="89"/>
-      <c r="O23" s="105">
+      <c r="O23" s="50">
         <f t="shared" si="0"/>
         <v>20583</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="45">
         <v>23</v>
       </c>
@@ -2822,7 +2901,7 @@
       <c r="H24" s="94">
         <v>0</v>
       </c>
-      <c r="I24" s="106">
+      <c r="I24" s="75">
         <f t="shared" si="1"/>
         <v>4140</v>
       </c>
@@ -2833,12 +2912,12 @@
       <c r="K24" s="49">
         <v>0</v>
       </c>
-      <c r="O24" s="105">
+      <c r="O24" s="50">
         <f t="shared" si="0"/>
         <v>4140</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="45">
         <v>24</v>
       </c>
@@ -2864,7 +2943,7 @@
       <c r="H25" s="94">
         <v>0</v>
       </c>
-      <c r="I25" s="106">
+      <c r="I25" s="75">
         <f t="shared" si="1"/>
         <v>7382</v>
       </c>
@@ -2873,14 +2952,23 @@
         <v>7382</v>
       </c>
       <c r="K25" s="49">
-        <v>0</v>
-      </c>
-      <c r="O25" s="105">
-        <f t="shared" si="0"/>
         <v>7382</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L25" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="M25" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="N25" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="O25" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="45">
         <v>25</v>
       </c>
@@ -2906,7 +2994,7 @@
       <c r="H26" s="94">
         <v>0</v>
       </c>
-      <c r="I26" s="106">
+      <c r="I26" s="75">
         <f t="shared" si="1"/>
         <v>7382</v>
       </c>
@@ -2926,12 +3014,12 @@
       <c r="N26" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O26" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="O26" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" s="45">
         <v>26</v>
       </c>
@@ -2957,7 +3045,7 @@
       <c r="H27" s="94">
         <v>-430</v>
       </c>
-      <c r="I27" s="106">
+      <c r="I27" s="75">
         <f t="shared" si="1"/>
         <v>7546</v>
       </c>
@@ -2968,12 +3056,12 @@
       <c r="K27" s="49">
         <v>0</v>
       </c>
-      <c r="O27" s="105">
+      <c r="O27" s="50">
         <f t="shared" si="0"/>
         <v>7116</v>
       </c>
     </row>
-    <row r="28" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A28" s="63">
         <v>27</v>
       </c>
@@ -2999,7 +3087,7 @@
       <c r="H28" s="94">
         <v>12338</v>
       </c>
-      <c r="I28" s="106">
+      <c r="I28" s="75">
         <f t="shared" si="1"/>
         <v>6574</v>
       </c>
@@ -3012,12 +3100,12 @@
       </c>
       <c r="L28" s="89"/>
       <c r="M28" s="89"/>
-      <c r="O28" s="105">
+      <c r="O28" s="50">
         <f t="shared" si="0"/>
         <v>18912</v>
       </c>
     </row>
-    <row r="29" spans="1:15" s="67" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" s="67" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A29" s="63">
         <v>28</v>
       </c>
@@ -3043,7 +3131,7 @@
       <c r="H29" s="94">
         <v>6389</v>
       </c>
-      <c r="I29" s="106">
+      <c r="I29" s="75">
         <f t="shared" si="1"/>
         <v>3406</v>
       </c>
@@ -3056,12 +3144,12 @@
       </c>
       <c r="L29" s="89"/>
       <c r="M29" s="89"/>
-      <c r="O29" s="105">
+      <c r="O29" s="50">
         <f t="shared" si="0"/>
         <v>9795</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" s="45">
         <v>29</v>
       </c>
@@ -3087,7 +3175,7 @@
       <c r="H30" s="94">
         <v>0</v>
       </c>
-      <c r="I30" s="106">
+      <c r="I30" s="75">
         <f t="shared" si="1"/>
         <v>7610</v>
       </c>
@@ -3098,12 +3186,12 @@
       <c r="K30" s="49">
         <v>0</v>
       </c>
-      <c r="O30" s="105">
+      <c r="O30" s="50">
         <f t="shared" si="0"/>
         <v>7610</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" s="45">
         <v>30</v>
       </c>
@@ -3129,7 +3217,7 @@
       <c r="H31" s="94">
         <v>0</v>
       </c>
-      <c r="I31" s="106">
+      <c r="I31" s="75">
         <f t="shared" si="1"/>
         <v>3468</v>
       </c>
@@ -3138,14 +3226,23 @@
         <v>3468</v>
       </c>
       <c r="K31" s="49">
-        <v>0</v>
-      </c>
-      <c r="O31" s="105">
-        <f t="shared" si="0"/>
-        <v>3468</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+        <v>5889</v>
+      </c>
+      <c r="L31" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="M31" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="N31" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O31" s="117">
+        <f t="shared" si="0"/>
+        <v>-2421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="45">
         <v>31</v>
       </c>
@@ -3171,7 +3268,7 @@
       <c r="H32" s="94">
         <v>0</v>
       </c>
-      <c r="I32" s="106">
+      <c r="I32" s="75">
         <f t="shared" si="1"/>
         <v>4912</v>
       </c>
@@ -3182,12 +3279,12 @@
       <c r="K32" s="49">
         <v>0</v>
       </c>
-      <c r="O32" s="105">
+      <c r="O32" s="50">
         <f t="shared" si="0"/>
         <v>4912</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" s="45">
         <v>32</v>
       </c>
@@ -3213,7 +3310,7 @@
       <c r="H33" s="94">
         <v>0</v>
       </c>
-      <c r="I33" s="106">
+      <c r="I33" s="75">
         <f t="shared" si="1"/>
         <v>7346</v>
       </c>
@@ -3224,12 +3321,12 @@
       <c r="K33" s="49">
         <v>0</v>
       </c>
-      <c r="O33" s="105">
+      <c r="O33" s="50">
         <f t="shared" si="0"/>
         <v>7346</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A34" s="45">
         <v>33</v>
       </c>
@@ -3255,7 +3352,7 @@
       <c r="H34" s="94">
         <v>0</v>
       </c>
-      <c r="I34" s="106">
+      <c r="I34" s="75">
         <f t="shared" si="1"/>
         <v>11714</v>
       </c>
@@ -3266,12 +3363,12 @@
       <c r="K34" s="49">
         <v>0</v>
       </c>
-      <c r="O34" s="105">
+      <c r="O34" s="50">
         <f t="shared" si="0"/>
         <v>11714</v>
       </c>
     </row>
-    <row r="35" spans="1:15" s="67" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" s="67" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A35" s="63">
         <v>34</v>
       </c>
@@ -3297,7 +3394,7 @@
       <c r="H35" s="94">
         <v>3555</v>
       </c>
-      <c r="I35" s="106">
+      <c r="I35" s="75">
         <f t="shared" si="1"/>
         <v>7110</v>
       </c>
@@ -3310,12 +3407,12 @@
       </c>
       <c r="L35" s="89"/>
       <c r="M35" s="89"/>
-      <c r="O35" s="105">
+      <c r="O35" s="50">
         <f t="shared" si="0"/>
         <v>10665</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="45">
         <v>35</v>
       </c>
@@ -3341,7 +3438,7 @@
       <c r="H36" s="94">
         <v>0</v>
       </c>
-      <c r="I36" s="106">
+      <c r="I36" s="75">
         <f t="shared" si="1"/>
         <v>7918</v>
       </c>
@@ -3358,12 +3455,12 @@
       <c r="M36" s="89" t="s">
         <v>217</v>
       </c>
-      <c r="O36" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="O36" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="54" x14ac:dyDescent="0.35">
       <c r="A37" s="45">
         <v>36</v>
       </c>
@@ -3389,7 +3486,7 @@
       <c r="H37" s="94">
         <v>0</v>
       </c>
-      <c r="I37" s="106">
+      <c r="I37" s="75">
         <f t="shared" si="1"/>
         <v>6338</v>
       </c>
@@ -3400,12 +3497,12 @@
       <c r="K37" s="49">
         <v>0</v>
       </c>
-      <c r="O37" s="105">
+      <c r="O37" s="50">
         <f t="shared" si="0"/>
         <v>6338</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A38" s="45">
         <v>37</v>
       </c>
@@ -3431,7 +3528,7 @@
       <c r="H38" s="94">
         <v>0</v>
       </c>
-      <c r="I38" s="106">
+      <c r="I38" s="75">
         <f t="shared" si="1"/>
         <v>5602</v>
       </c>
@@ -3442,12 +3539,12 @@
       <c r="K38" s="49">
         <v>0</v>
       </c>
-      <c r="O38" s="105">
+      <c r="O38" s="50">
         <f t="shared" si="0"/>
         <v>5602</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" s="45">
         <v>38</v>
       </c>
@@ -3473,7 +3570,7 @@
       <c r="H39" s="94">
         <v>0</v>
       </c>
-      <c r="I39" s="106">
+      <c r="I39" s="75">
         <f t="shared" si="1"/>
         <v>6974</v>
       </c>
@@ -3484,12 +3581,12 @@
       <c r="K39" s="49">
         <v>0</v>
       </c>
-      <c r="O39" s="105">
+      <c r="O39" s="50">
         <f t="shared" si="0"/>
         <v>6974</v>
       </c>
     </row>
-    <row r="40" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="63">
         <v>39</v>
       </c>
@@ -3515,7 +3612,7 @@
       <c r="H40" s="94">
         <v>3691</v>
       </c>
-      <c r="I40" s="106">
+      <c r="I40" s="75">
         <f t="shared" si="1"/>
         <v>7382</v>
       </c>
@@ -3528,12 +3625,12 @@
       </c>
       <c r="L40" s="89"/>
       <c r="M40" s="89"/>
-      <c r="O40" s="105">
+      <c r="O40" s="50">
         <f t="shared" si="0"/>
         <v>11073</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" ht="72" x14ac:dyDescent="0.35">
       <c r="A41" s="45">
         <v>40</v>
       </c>
@@ -3559,7 +3656,7 @@
       <c r="H41" s="94">
         <v>0</v>
       </c>
-      <c r="I41" s="106">
+      <c r="I41" s="75">
         <f t="shared" si="1"/>
         <v>6910</v>
       </c>
@@ -3570,12 +3667,12 @@
       <c r="K41" s="49">
         <v>0</v>
       </c>
-      <c r="O41" s="105">
+      <c r="O41" s="50">
         <f t="shared" si="0"/>
         <v>6910</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" ht="72" x14ac:dyDescent="0.35">
       <c r="A42" s="45">
         <v>41</v>
       </c>
@@ -3601,7 +3698,7 @@
       <c r="H42" s="94">
         <v>0</v>
       </c>
-      <c r="I42" s="106">
+      <c r="I42" s="75">
         <f t="shared" si="1"/>
         <v>4068</v>
       </c>
@@ -3621,12 +3718,12 @@
       <c r="N42" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O42" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" ht="75" x14ac:dyDescent="0.3">
+      <c r="O42" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" ht="54" x14ac:dyDescent="0.35">
       <c r="A43" s="45">
         <v>42</v>
       </c>
@@ -3652,7 +3749,7 @@
       <c r="H43" s="94">
         <v>0</v>
       </c>
-      <c r="I43" s="106">
+      <c r="I43" s="75">
         <f t="shared" si="1"/>
         <v>8480</v>
       </c>
@@ -3672,12 +3769,12 @@
       <c r="N43" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O43" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O43" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A44" s="63">
         <v>43</v>
       </c>
@@ -3703,7 +3800,7 @@
       <c r="H44" s="94">
         <v>9007</v>
       </c>
-      <c r="I44" s="106">
+      <c r="I44" s="75">
         <f t="shared" si="1"/>
         <v>18014</v>
       </c>
@@ -3716,12 +3813,12 @@
       </c>
       <c r="L44" s="89"/>
       <c r="M44" s="89"/>
-      <c r="O44" s="105">
+      <c r="O44" s="50">
         <f t="shared" si="0"/>
         <v>27021</v>
       </c>
     </row>
-    <row r="45" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="63">
         <v>44</v>
       </c>
@@ -3747,7 +3844,7 @@
       <c r="H45" s="94">
         <v>3210</v>
       </c>
-      <c r="I45" s="106">
+      <c r="I45" s="75">
         <f t="shared" si="1"/>
         <v>6420</v>
       </c>
@@ -3760,12 +3857,12 @@
       </c>
       <c r="L45" s="89"/>
       <c r="M45" s="89"/>
-      <c r="O45" s="105">
+      <c r="O45" s="50">
         <f t="shared" si="0"/>
         <v>9630</v>
       </c>
     </row>
-    <row r="46" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="63">
         <v>45</v>
       </c>
@@ -3791,7 +3888,7 @@
       <c r="H46" s="94">
         <v>5933</v>
       </c>
-      <c r="I46" s="106">
+      <c r="I46" s="75">
         <f t="shared" si="1"/>
         <v>6374</v>
       </c>
@@ -3804,12 +3901,12 @@
       </c>
       <c r="L46" s="89"/>
       <c r="M46" s="89"/>
-      <c r="O46" s="105">
+      <c r="O46" s="50">
         <f t="shared" si="0"/>
         <v>12307</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" s="45">
         <v>46</v>
       </c>
@@ -3835,7 +3932,7 @@
       <c r="H47" s="94">
         <v>0</v>
       </c>
-      <c r="I47" s="106">
+      <c r="I47" s="75">
         <f t="shared" si="1"/>
         <v>6374</v>
       </c>
@@ -3844,14 +3941,23 @@
         <v>6374</v>
       </c>
       <c r="K47" s="49">
-        <v>0</v>
-      </c>
-      <c r="O47" s="105">
-        <f t="shared" si="0"/>
         <v>6374</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="89" t="s">
+        <v>234</v>
+      </c>
+      <c r="M47" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="N47" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="O47" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A48" s="63">
         <v>47</v>
       </c>
@@ -3877,7 +3983,7 @@
       <c r="H48" s="94">
         <v>3183</v>
       </c>
-      <c r="I48" s="106">
+      <c r="I48" s="75">
         <f t="shared" si="1"/>
         <v>6366</v>
       </c>
@@ -3890,12 +3996,12 @@
       </c>
       <c r="L48" s="89"/>
       <c r="M48" s="89"/>
-      <c r="O48" s="105">
+      <c r="O48" s="50">
         <f t="shared" si="0"/>
         <v>9549</v>
       </c>
     </row>
-    <row r="49" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A49" s="63">
         <v>48</v>
       </c>
@@ -3921,7 +4027,7 @@
       <c r="H49" s="94">
         <v>11058</v>
       </c>
-      <c r="I49" s="106">
+      <c r="I49" s="75">
         <f t="shared" si="1"/>
         <v>5892</v>
       </c>
@@ -3934,12 +4040,12 @@
       </c>
       <c r="L49" s="89"/>
       <c r="M49" s="89"/>
-      <c r="O49" s="105">
+      <c r="O49" s="50">
         <f t="shared" si="0"/>
         <v>16950</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A50" s="45">
         <v>49</v>
       </c>
@@ -3965,7 +4071,7 @@
       <c r="H50" s="94">
         <v>0</v>
       </c>
-      <c r="I50" s="106">
+      <c r="I50" s="75">
         <f t="shared" si="1"/>
         <v>6484</v>
       </c>
@@ -3985,12 +4091,12 @@
       <c r="N50" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O50" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="O50" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A51" s="63">
         <v>50</v>
       </c>
@@ -4016,7 +4122,7 @@
       <c r="H51" s="94">
         <v>9029</v>
       </c>
-      <c r="I51" s="106">
+      <c r="I51" s="75">
         <f t="shared" si="1"/>
         <v>9416</v>
       </c>
@@ -4029,12 +4135,12 @@
       </c>
       <c r="L51" s="89"/>
       <c r="M51" s="89"/>
-      <c r="O51" s="105">
+      <c r="O51" s="50">
         <f t="shared" si="0"/>
         <v>18445</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" s="45">
         <v>51</v>
       </c>
@@ -4060,7 +4166,7 @@
       <c r="H52" s="94">
         <v>0</v>
       </c>
-      <c r="I52" s="106">
+      <c r="I52" s="75">
         <f t="shared" si="1"/>
         <v>8172</v>
       </c>
@@ -4069,14 +4175,23 @@
         <v>8172</v>
       </c>
       <c r="K52" s="49">
-        <v>0</v>
-      </c>
-      <c r="O52" s="105">
-        <f t="shared" si="0"/>
         <v>8172</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="L52" s="89" t="s">
+        <v>235</v>
+      </c>
+      <c r="M52" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="N52" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O52" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" s="45">
         <v>52</v>
       </c>
@@ -4102,7 +4217,7 @@
       <c r="H53" s="94">
         <v>0</v>
       </c>
-      <c r="I53" s="106">
+      <c r="I53" s="75">
         <f t="shared" si="1"/>
         <v>9152</v>
       </c>
@@ -4122,12 +4237,12 @@
       <c r="N53" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O53" s="105">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="67" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+      <c r="O53" s="50">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" s="67" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A54" s="63">
         <v>53</v>
       </c>
@@ -4153,7 +4268,7 @@
       <c r="H54" s="94">
         <v>9307</v>
       </c>
-      <c r="I54" s="106">
+      <c r="I54" s="75">
         <f t="shared" si="1"/>
         <v>9706</v>
       </c>
@@ -4166,12 +4281,12 @@
       </c>
       <c r="L54" s="89"/>
       <c r="M54" s="89"/>
-      <c r="O54" s="105">
+      <c r="O54" s="50">
         <f t="shared" si="0"/>
         <v>19013</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" s="45">
         <v>54</v>
       </c>
@@ -4197,7 +4312,7 @@
       <c r="H55" s="94">
         <v>0</v>
       </c>
-      <c r="I55" s="106">
+      <c r="I55" s="75">
         <f t="shared" si="1"/>
         <v>7228</v>
       </c>
@@ -4222,7 +4337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" s="67" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" s="67" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A56" s="63">
         <v>55</v>
       </c>
@@ -4248,7 +4363,7 @@
       <c r="H56" s="94">
         <v>11257</v>
       </c>
-      <c r="I56" s="106">
+      <c r="I56" s="75">
         <f t="shared" si="1"/>
         <v>11740</v>
       </c>
@@ -4261,12 +4376,12 @@
       </c>
       <c r="L56" s="89"/>
       <c r="M56" s="89"/>
-      <c r="O56" s="105">
+      <c r="O56" s="50">
         <f t="shared" ref="O56:O73" si="4">J56-K56</f>
         <v>22997</v>
       </c>
     </row>
-    <row r="57" spans="1:15" s="67" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" s="67" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A57" s="63">
         <v>56</v>
       </c>
@@ -4292,7 +4407,7 @@
       <c r="H57" s="94">
         <v>2700</v>
       </c>
-      <c r="I57" s="106">
+      <c r="I57" s="75">
         <f t="shared" si="1"/>
         <v>6828</v>
       </c>
@@ -4305,12 +4420,12 @@
       </c>
       <c r="L57" s="89"/>
       <c r="M57" s="89"/>
-      <c r="O57" s="105">
+      <c r="O57" s="50">
         <f t="shared" si="4"/>
         <v>9528</v>
       </c>
     </row>
-    <row r="58" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A58" s="63">
         <v>57</v>
       </c>
@@ -4336,7 +4451,7 @@
       <c r="H58" s="94">
         <v>13377</v>
       </c>
-      <c r="I58" s="106">
+      <c r="I58" s="75">
         <f t="shared" si="1"/>
         <v>7128</v>
       </c>
@@ -4349,12 +4464,12 @@
       </c>
       <c r="L58" s="89"/>
       <c r="M58" s="89"/>
-      <c r="O58" s="105">
+      <c r="O58" s="50">
         <f t="shared" si="4"/>
         <v>20505</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A59" s="45">
         <v>58</v>
       </c>
@@ -4380,7 +4495,7 @@
       <c r="H59" s="94">
         <v>0</v>
       </c>
-      <c r="I59" s="106">
+      <c r="I59" s="75">
         <f t="shared" si="1"/>
         <v>2770</v>
       </c>
@@ -4400,12 +4515,12 @@
       <c r="N59" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O59" s="105">
+      <c r="O59" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" s="45">
         <v>59</v>
       </c>
@@ -4431,7 +4546,7 @@
       <c r="H60" s="94">
         <v>0</v>
       </c>
-      <c r="I60" s="106">
+      <c r="I60" s="75">
         <f t="shared" si="1"/>
         <v>6764</v>
       </c>
@@ -4451,12 +4566,12 @@
       <c r="N60" s="50" t="s">
         <v>218</v>
       </c>
-      <c r="O60" s="105">
+      <c r="O60" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A61" s="63">
         <v>60</v>
       </c>
@@ -4482,7 +4597,7 @@
       <c r="H61" s="94">
         <v>21111</v>
       </c>
-      <c r="I61" s="106">
+      <c r="I61" s="75">
         <f t="shared" si="1"/>
         <v>11250</v>
       </c>
@@ -4495,12 +4610,12 @@
       </c>
       <c r="L61" s="89"/>
       <c r="M61" s="89"/>
-      <c r="O61" s="105">
+      <c r="O61" s="50">
         <f t="shared" si="4"/>
         <v>32361</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" s="45">
         <v>61</v>
       </c>
@@ -4526,7 +4641,7 @@
       <c r="H62" s="94">
         <v>0</v>
       </c>
-      <c r="I62" s="106">
+      <c r="I62" s="75">
         <f t="shared" si="1"/>
         <v>3406</v>
       </c>
@@ -4535,14 +4650,23 @@
         <v>3406</v>
       </c>
       <c r="K62" s="49">
-        <v>0</v>
-      </c>
-      <c r="O62" s="105">
+        <v>3406</v>
+      </c>
+      <c r="L62" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="M62" s="89" t="s">
+        <v>217</v>
+      </c>
+      <c r="N62" s="50" t="s">
+        <v>218</v>
+      </c>
+      <c r="O62" s="50">
         <f t="shared" si="4"/>
-        <v>3406</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="67" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" s="67" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A63" s="63">
         <v>62</v>
       </c>
@@ -4568,7 +4692,7 @@
       <c r="H63" s="94">
         <v>10326</v>
       </c>
-      <c r="I63" s="106">
+      <c r="I63" s="75">
         <f t="shared" si="1"/>
         <v>5502</v>
       </c>
@@ -4581,12 +4705,12 @@
       </c>
       <c r="L63" s="89"/>
       <c r="M63" s="89"/>
-      <c r="O63" s="105">
+      <c r="O63" s="50">
         <f t="shared" si="4"/>
         <v>15828</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A64" s="45">
         <v>63</v>
       </c>
@@ -4612,7 +4736,7 @@
       <c r="H64" s="94">
         <v>0</v>
       </c>
-      <c r="I64" s="106">
+      <c r="I64" s="75">
         <f t="shared" si="1"/>
         <v>6302</v>
       </c>
@@ -4624,17 +4748,20 @@
         <v>6302</v>
       </c>
       <c r="L64" s="89" t="s">
+        <v>241</v>
+      </c>
+      <c r="M64" s="89" t="s">
         <v>230</v>
       </c>
-      <c r="M64" s="89" t="s">
+      <c r="N64" s="50" t="s">
         <v>231</v>
       </c>
-      <c r="O64" s="105">
+      <c r="O64" s="50">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" s="45">
         <v>64</v>
       </c>
@@ -4660,7 +4787,7 @@
       <c r="H65" s="94">
         <v>0</v>
       </c>
-      <c r="I65" s="106">
+      <c r="I65" s="75">
         <f t="shared" si="1"/>
         <v>6302</v>
       </c>
@@ -4671,12 +4798,12 @@
       <c r="K65" s="49">
         <v>0</v>
       </c>
-      <c r="O65" s="105">
+      <c r="O65" s="50">
         <f t="shared" si="4"/>
         <v>6302</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" s="45">
         <v>65</v>
       </c>
@@ -4702,7 +4829,7 @@
       <c r="H66" s="94">
         <v>0</v>
       </c>
-      <c r="I66" s="106">
+      <c r="I66" s="75">
         <f t="shared" si="1"/>
         <v>6338</v>
       </c>
@@ -4713,12 +4840,12 @@
       <c r="K66" s="49">
         <v>0</v>
       </c>
-      <c r="O66" s="105">
+      <c r="O66" s="50">
         <f t="shared" si="4"/>
         <v>6338</v>
       </c>
     </row>
-    <row r="67" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="63">
         <v>66</v>
       </c>
@@ -4744,7 +4871,7 @@
       <c r="H67" s="94">
         <v>3187</v>
       </c>
-      <c r="I67" s="106">
+      <c r="I67" s="75">
         <f t="shared" ref="I67:I73" si="5">2*ROUND(E67* F67,)</f>
         <v>6374</v>
       </c>
@@ -4757,12 +4884,12 @@
       </c>
       <c r="L67" s="89"/>
       <c r="M67" s="89"/>
-      <c r="O67" s="105">
+      <c r="O67" s="50">
         <f t="shared" si="4"/>
         <v>9561</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="54" x14ac:dyDescent="0.35">
       <c r="A68" s="45">
         <v>67</v>
       </c>
@@ -4788,7 +4915,7 @@
       <c r="H68" s="94">
         <v>0</v>
       </c>
-      <c r="I68" s="106">
+      <c r="I68" s="75">
         <f t="shared" si="5"/>
         <v>14918</v>
       </c>
@@ -4799,12 +4926,12 @@
       <c r="K68" s="49">
         <v>0</v>
       </c>
-      <c r="O68" s="105">
+      <c r="O68" s="50">
         <f t="shared" si="4"/>
         <v>14918</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A69" s="45">
         <v>68</v>
       </c>
@@ -4828,7 +4955,7 @@
       <c r="H69" s="94">
         <v>0</v>
       </c>
-      <c r="I69" s="106">
+      <c r="I69" s="75">
         <f t="shared" si="5"/>
         <v>7282</v>
       </c>
@@ -4839,12 +4966,12 @@
       <c r="K69" s="49">
         <v>0</v>
       </c>
-      <c r="O69" s="105">
+      <c r="O69" s="50">
         <f t="shared" si="4"/>
         <v>7282</v>
       </c>
     </row>
-    <row r="70" spans="1:15" s="67" customFormat="1" ht="56.25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" s="67" customFormat="1" ht="54" x14ac:dyDescent="0.35">
       <c r="A70" s="63">
         <v>69</v>
       </c>
@@ -4870,7 +4997,7 @@
       <c r="H70" s="94">
         <v>1124</v>
       </c>
-      <c r="I70" s="106">
+      <c r="I70" s="75">
         <f t="shared" si="5"/>
         <v>27340</v>
       </c>
@@ -4883,12 +5010,12 @@
       </c>
       <c r="L70" s="89"/>
       <c r="M70" s="89"/>
-      <c r="O70" s="105">
+      <c r="O70" s="50">
         <f t="shared" si="4"/>
         <v>28464</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="36" x14ac:dyDescent="0.35">
       <c r="A71" s="45">
         <v>70</v>
       </c>
@@ -4914,7 +5041,7 @@
       <c r="H71" s="94">
         <v>0</v>
       </c>
-      <c r="I71" s="106">
+      <c r="I71" s="75">
         <f t="shared" si="5"/>
         <v>5258</v>
       </c>
@@ -4923,14 +5050,20 @@
         <v>5258</v>
       </c>
       <c r="K71" s="49">
-        <v>0</v>
-      </c>
-      <c r="O71" s="105">
+        <v>5258</v>
+      </c>
+      <c r="L71" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="M71" s="89" t="s">
+        <v>222</v>
+      </c>
+      <c r="O71" s="50">
         <f t="shared" si="4"/>
-        <v>5258</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" s="76" customFormat="1" ht="37.5" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" s="76" customFormat="1" ht="36" x14ac:dyDescent="0.35">
       <c r="A72" s="70">
         <v>71</v>
       </c>
@@ -4956,7 +5089,7 @@
       <c r="H72" s="102">
         <v>0</v>
       </c>
-      <c r="I72" s="106">
+      <c r="I72" s="75">
         <f t="shared" si="5"/>
         <v>5684</v>
       </c>
@@ -4969,12 +5102,12 @@
       </c>
       <c r="L72" s="91"/>
       <c r="M72" s="91"/>
-      <c r="O72" s="105">
+      <c r="O72" s="50">
         <f t="shared" si="4"/>
         <v>5684</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" s="45">
         <v>72</v>
       </c>
@@ -5000,7 +5133,7 @@
       <c r="H73" s="94">
         <v>0</v>
       </c>
-      <c r="I73" s="106">
+      <c r="I73" s="75">
         <f t="shared" si="5"/>
         <v>5684</v>
       </c>
@@ -5009,14 +5142,23 @@
         <v>5684</v>
       </c>
       <c r="K73" s="49">
-        <v>0</v>
-      </c>
-      <c r="O73" s="105">
+        <v>5684</v>
+      </c>
+      <c r="L73" s="89" t="s">
+        <v>236</v>
+      </c>
+      <c r="M73" s="89" t="s">
+        <v>227</v>
+      </c>
+      <c r="N73" s="50" t="s">
+        <v>222</v>
+      </c>
+      <c r="O73" s="50">
         <f t="shared" si="4"/>
-        <v>5684</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="E74" s="101">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -5039,111 +5181,111 @@
       </c>
       <c r="K74" s="50">
         <f>SUM(K2:K73)</f>
-        <v>86234</v>
+        <v>177638</v>
       </c>
       <c r="L74" s="92"/>
       <c r="M74" s="92"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L75" s="92"/>
       <c r="M75" s="92"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L76" s="92"/>
       <c r="M76" s="92"/>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C77" s="50"/>
       <c r="E77" s="97"/>
       <c r="L77" s="92"/>
       <c r="M77" s="92"/>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="C78" s="59"/>
       <c r="L78" s="92"/>
       <c r="M78" s="92"/>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L79" s="92"/>
       <c r="M79" s="92"/>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="L80" s="92"/>
       <c r="M80" s="92"/>
     </row>
-    <row r="81" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L81" s="92"/>
       <c r="M81" s="92"/>
     </row>
-    <row r="82" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L82" s="92"/>
       <c r="M82" s="92"/>
     </row>
-    <row r="83" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="83" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L83" s="92"/>
       <c r="M83" s="92"/>
     </row>
-    <row r="84" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D84" s="50"/>
       <c r="E84" s="97"/>
       <c r="F84" s="98"/>
       <c r="L84" s="92"/>
       <c r="M84" s="92"/>
     </row>
-    <row r="85" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="85" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D85" s="50"/>
       <c r="E85" s="97"/>
       <c r="L85" s="92"/>
       <c r="M85" s="92"/>
     </row>
-    <row r="86" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="86" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D86" s="62"/>
       <c r="E86" s="97"/>
       <c r="F86" s="98"/>
       <c r="L86" s="92"/>
       <c r="M86" s="92"/>
     </row>
-    <row r="87" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="87" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D87" s="50"/>
       <c r="E87" s="97"/>
       <c r="L87" s="92"/>
       <c r="M87" s="92"/>
     </row>
-    <row r="88" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="88" spans="4:13" x14ac:dyDescent="0.35">
       <c r="D88" s="50"/>
       <c r="E88" s="97"/>
       <c r="L88" s="92"/>
       <c r="M88" s="92"/>
     </row>
-    <row r="89" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="89" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L89" s="92"/>
       <c r="M89" s="92"/>
     </row>
-    <row r="90" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L90" s="92"/>
       <c r="M90" s="92"/>
     </row>
-    <row r="91" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="91" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L91" s="92"/>
       <c r="M91" s="92"/>
     </row>
-    <row r="92" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L92" s="92"/>
       <c r="M92" s="92"/>
     </row>
-    <row r="93" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="93" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L93" s="92"/>
       <c r="M93" s="92"/>
     </row>
-    <row r="94" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="94" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L94" s="92"/>
       <c r="M94" s="92"/>
     </row>
-    <row r="95" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L95" s="92"/>
       <c r="M95" s="92"/>
     </row>
-    <row r="96" spans="4:13" x14ac:dyDescent="0.3">
+    <row r="96" spans="4:13" x14ac:dyDescent="0.35">
       <c r="L96" s="92"/>
       <c r="M96" s="92"/>
     </row>
@@ -5157,1429 +5299,1555 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F34115-B558-4DAE-88E2-CFCAD6F6585E}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="G65" sqref="G65"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="110" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.85546875" style="110" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.5703125" style="110" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" style="110" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="110"/>
+    <col min="1" max="1" width="13.5546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.88671875" style="107" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5546875" style="107" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.109375" style="107" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="107"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="107" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="104" t="s">
         <v>138</v>
       </c>
-      <c r="B1" s="108" t="s">
+      <c r="B1" s="105" t="s">
         <v>212</v>
       </c>
-      <c r="C1" s="108" t="s">
+      <c r="C1" s="105" t="s">
         <v>213</v>
       </c>
-      <c r="D1" s="108" t="s">
+      <c r="D1" s="105" t="s">
         <v>214</v>
       </c>
-      <c r="E1" s="109" t="s">
+      <c r="E1" s="106" t="s">
         <v>219</v>
       </c>
-      <c r="F1" s="109" t="s">
+      <c r="F1" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="110" t="s">
+      <c r="G1" s="107" t="s">
         <v>220</v>
       </c>
-      <c r="H1" s="110" t="s">
+      <c r="H1" s="107" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="111" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="108" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="112">
-        <v>0</v>
-      </c>
-      <c r="C2" s="112">
+      <c r="B2" s="109">
+        <v>0</v>
+      </c>
+      <c r="C2" s="109">
         <v>1939.3333333333335</v>
       </c>
-      <c r="D2" s="112">
+      <c r="D2" s="109">
         <v>1939.3333333333335</v>
       </c>
-      <c r="F2" s="117">
+      <c r="E2" s="107">
+        <v>1939</v>
+      </c>
+      <c r="F2" s="114">
         <f t="shared" ref="F2:F54" si="0">ROUND(D2-E2,)</f>
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="111" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="H2" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="108" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="112">
+      <c r="B3" s="109">
         <v>19636</v>
       </c>
-      <c r="C3" s="112">
+      <c r="C3" s="109">
         <v>6669.333333333333</v>
       </c>
-      <c r="D3" s="112">
+      <c r="D3" s="109">
         <v>26305.333333333332</v>
       </c>
-      <c r="F3" s="117">
+      <c r="F3" s="114">
         <f t="shared" si="0"/>
         <v>26305</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="111" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="108" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="112">
-        <v>0</v>
-      </c>
-      <c r="C4" s="112">
+      <c r="B4" s="109">
+        <v>0</v>
+      </c>
+      <c r="C4" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D4" s="112">
+      <c r="D4" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="E4" s="110">
+      <c r="E4" s="107">
         <v>794.33</v>
       </c>
-      <c r="F4" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G4" s="110" t="s">
+      <c r="F4" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G4" s="107" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="110" t="s">
+      <c r="H4" s="107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="111" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="112">
-        <v>0</v>
-      </c>
-      <c r="C5" s="112">
+      <c r="B5" s="109">
+        <v>0</v>
+      </c>
+      <c r="C5" s="109">
         <v>6584.333333333333</v>
       </c>
-      <c r="D5" s="112">
+      <c r="D5" s="109">
         <v>6584.333333333333</v>
       </c>
-      <c r="F5" s="117">
-        <f t="shared" si="0"/>
+      <c r="E5" s="107">
         <v>6584</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="111" t="s">
+      <c r="F5" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G5" s="107" t="s">
+        <v>233</v>
+      </c>
+      <c r="H5" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="108" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="112">
-        <v>0</v>
-      </c>
-      <c r="C6" s="112">
+      <c r="B6" s="109">
+        <v>0</v>
+      </c>
+      <c r="C6" s="109">
         <v>7445.3333333333367</v>
       </c>
-      <c r="D6" s="112">
+      <c r="D6" s="109">
         <v>7445.3333333333367</v>
       </c>
-      <c r="F6" s="117">
+      <c r="F6" s="114">
         <f t="shared" si="0"/>
         <v>7445</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="111" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A7" s="108" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="112">
+      <c r="B7" s="109">
         <v>3883</v>
       </c>
-      <c r="C7" s="112">
+      <c r="C7" s="109">
         <v>1782.3333333333335</v>
       </c>
-      <c r="D7" s="112">
+      <c r="D7" s="109">
         <v>5665.3333333333339</v>
       </c>
-      <c r="F7" s="117">
+      <c r="F7" s="114">
         <f t="shared" si="0"/>
         <v>5665</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="111" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="108" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="112">
-        <v>0</v>
-      </c>
-      <c r="C8" s="112">
+      <c r="B8" s="109">
+        <v>0</v>
+      </c>
+      <c r="C8" s="109">
         <v>832.33333333333292</v>
       </c>
-      <c r="D8" s="112">
+      <c r="D8" s="109">
         <v>832.33333333333292</v>
       </c>
-      <c r="F8" s="117">
+      <c r="F8" s="114">
         <f t="shared" si="0"/>
         <v>832</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="111" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A9" s="108" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="112">
+      <c r="B9" s="109">
         <v>2800</v>
       </c>
-      <c r="C9" s="112">
+      <c r="C9" s="109">
         <v>814.33333333333337</v>
       </c>
-      <c r="D9" s="112">
+      <c r="D9" s="109">
         <v>3614.3333333333335</v>
       </c>
-      <c r="F9" s="117">
+      <c r="F9" s="114">
         <f t="shared" si="0"/>
         <v>3614</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="111" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A10" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="112">
+      <c r="B10" s="109">
         <v>11277</v>
       </c>
-      <c r="C10" s="112">
+      <c r="C10" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D10" s="112">
+      <c r="D10" s="109">
         <v>12071.333333333334</v>
       </c>
-      <c r="F10" s="117">
+      <c r="F10" s="114">
         <f t="shared" si="0"/>
         <v>12071</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A11" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="112">
-        <v>0</v>
-      </c>
-      <c r="C11" s="112">
+      <c r="B11" s="109">
+        <v>0</v>
+      </c>
+      <c r="C11" s="109">
         <v>10717.333333333327</v>
       </c>
-      <c r="D11" s="112">
+      <c r="D11" s="109">
         <v>10717.333333333327</v>
       </c>
-      <c r="F11" s="117">
-        <f t="shared" si="0"/>
+      <c r="E11" s="107">
         <v>10717</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="111" t="s">
+      <c r="F11" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H11" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A12" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="112">
-        <v>0</v>
-      </c>
-      <c r="C12" s="112">
+      <c r="B12" s="109">
+        <v>0</v>
+      </c>
+      <c r="C12" s="109">
         <v>13104.333333333334</v>
       </c>
-      <c r="D12" s="112">
+      <c r="D12" s="109">
         <v>13104.333333333334</v>
       </c>
-      <c r="F12" s="117">
+      <c r="F12" s="114">
         <f t="shared" si="0"/>
         <v>13104</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="111" t="s">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A13" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="112">
-        <v>0</v>
-      </c>
-      <c r="C13" s="112">
+      <c r="B13" s="109">
+        <v>0</v>
+      </c>
+      <c r="C13" s="109">
         <v>14354.333333333334</v>
       </c>
-      <c r="D13" s="112">
+      <c r="D13" s="109">
         <v>14354.333333333334</v>
       </c>
-      <c r="F13" s="117">
-        <f t="shared" si="0"/>
-        <v>14354</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="111" t="s">
+      <c r="E13" s="107">
+        <v>14354.33</v>
+      </c>
+      <c r="F13" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G13" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H13" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A14" s="108" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="112">
-        <v>0</v>
-      </c>
-      <c r="C14" s="112">
+      <c r="B14" s="109">
+        <v>0</v>
+      </c>
+      <c r="C14" s="109">
         <v>7542.3333333333348</v>
       </c>
-      <c r="D14" s="112">
+      <c r="D14" s="109">
         <v>7542.3333333333348</v>
       </c>
-      <c r="F14" s="117">
-        <f t="shared" si="0"/>
-        <v>7542</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="111" t="s">
+      <c r="E14" s="107">
+        <v>7542.33</v>
+      </c>
+      <c r="F14" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="H14" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A15" s="108" t="s">
         <v>14</v>
       </c>
-      <c r="B15" s="112">
-        <v>0</v>
-      </c>
-      <c r="C15" s="112">
+      <c r="B15" s="109">
+        <v>0</v>
+      </c>
+      <c r="C15" s="109">
         <v>3902.333333333333</v>
       </c>
-      <c r="D15" s="112">
+      <c r="D15" s="109">
         <v>3902.333333333333</v>
       </c>
-      <c r="E15" s="110">
+      <c r="E15" s="107">
         <v>3902</v>
       </c>
-      <c r="F15" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="111" t="s">
+      <c r="F15" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A16" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="112">
-        <v>0</v>
-      </c>
-      <c r="C16" s="112">
+      <c r="B16" s="109">
+        <v>0</v>
+      </c>
+      <c r="C16" s="109">
         <v>834.33333333333337</v>
       </c>
-      <c r="D16" s="112">
+      <c r="D16" s="109">
         <v>834.33333333333337</v>
       </c>
-      <c r="F16" s="117">
-        <f t="shared" si="0"/>
-        <v>834</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A17" s="111" t="s">
+      <c r="E16" s="107">
+        <v>834.33</v>
+      </c>
+      <c r="F16" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A17" s="108" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="112">
-        <v>0</v>
-      </c>
-      <c r="C17" s="112">
+      <c r="B17" s="109">
+        <v>0</v>
+      </c>
+      <c r="C17" s="109">
         <v>1404.3333333333335</v>
       </c>
-      <c r="D17" s="112">
+      <c r="D17" s="109">
         <v>1404.3333333333335</v>
       </c>
-      <c r="F17" s="117">
+      <c r="F17" s="114">
         <f t="shared" si="0"/>
         <v>1404</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A18" s="111" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A18" s="108" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="112">
+      <c r="B18" s="109">
         <v>1523</v>
       </c>
-      <c r="C18" s="112">
+      <c r="C18" s="109">
         <v>2036.3333333333335</v>
       </c>
-      <c r="D18" s="112">
+      <c r="D18" s="109">
         <v>3559.3333333333335</v>
       </c>
-      <c r="F18" s="117">
+      <c r="F18" s="114">
         <f t="shared" si="0"/>
         <v>3559</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A19" s="111" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A19" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="112">
-        <v>0</v>
-      </c>
-      <c r="C19" s="112">
+      <c r="B19" s="109">
+        <v>0</v>
+      </c>
+      <c r="C19" s="109">
         <v>829.33333333333337</v>
       </c>
-      <c r="D19" s="112">
+      <c r="D19" s="109">
         <v>829.33333333333337</v>
       </c>
-      <c r="F19" s="117">
+      <c r="F19" s="114">
         <f t="shared" si="0"/>
         <v>829</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A20" s="111" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A20" s="108" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="112">
-        <v>0</v>
-      </c>
-      <c r="C20" s="112">
+      <c r="B20" s="109">
+        <v>0</v>
+      </c>
+      <c r="C20" s="109">
         <v>828.33333333333337</v>
       </c>
-      <c r="D20" s="112">
+      <c r="D20" s="109">
         <v>828.33333333333337</v>
       </c>
-      <c r="F20" s="117">
-        <f t="shared" si="0"/>
-        <v>828</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A21" s="111" t="s">
+      <c r="E20" s="107">
+        <v>828.33</v>
+      </c>
+      <c r="F20" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A21" s="108" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="112">
+      <c r="B21" s="109">
         <v>6238</v>
       </c>
-      <c r="C21" s="112">
+      <c r="C21" s="109">
         <v>3635.3333333333326</v>
       </c>
-      <c r="D21" s="112">
+      <c r="D21" s="109">
         <v>9873.3333333333321</v>
       </c>
-      <c r="F21" s="117">
+      <c r="F21" s="114">
         <f t="shared" si="0"/>
         <v>9873</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A22" s="111" t="s">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A22" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="112">
-        <v>0</v>
-      </c>
-      <c r="C22" s="112">
+      <c r="B22" s="109">
+        <v>0</v>
+      </c>
+      <c r="C22" s="109">
         <v>2089.3333333333335</v>
       </c>
-      <c r="D22" s="112">
+      <c r="D22" s="109">
         <v>2089.3333333333335</v>
       </c>
-      <c r="F22" s="117">
+      <c r="F22" s="114">
         <f t="shared" si="0"/>
         <v>2089</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A23" s="111" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A23" s="108" t="s">
         <v>22</v>
       </c>
-      <c r="B23" s="112">
+      <c r="B23" s="109">
         <v>6444</v>
       </c>
-      <c r="C23" s="112">
+      <c r="C23" s="109">
         <v>2361.3333333333339</v>
       </c>
-      <c r="D23" s="112">
+      <c r="D23" s="109">
         <v>8805.3333333333339</v>
       </c>
-      <c r="F23" s="117">
+      <c r="F23" s="114">
         <f t="shared" si="0"/>
         <v>8805</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A24" s="111" t="s">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A24" s="108" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="112">
-        <v>0</v>
-      </c>
-      <c r="C24" s="112">
+      <c r="B24" s="109">
+        <v>0</v>
+      </c>
+      <c r="C24" s="109">
         <v>808.33333333333337</v>
       </c>
-      <c r="D24" s="112">
+      <c r="D24" s="109">
         <v>808.33333333333337</v>
       </c>
-      <c r="F24" s="117">
+      <c r="F24" s="114">
         <f t="shared" si="0"/>
         <v>808</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A25" s="111" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A25" s="108" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="112">
-        <v>0</v>
-      </c>
-      <c r="C25" s="112">
+      <c r="B25" s="109">
+        <v>0</v>
+      </c>
+      <c r="C25" s="109">
         <v>5566.3333333333312</v>
       </c>
-      <c r="D25" s="112">
+      <c r="D25" s="109">
         <v>5566.3333333333312</v>
       </c>
-      <c r="F25" s="117">
-        <f t="shared" si="0"/>
-        <v>5566</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A26" s="111" t="s">
+      <c r="E25" s="107">
+        <v>5566.33</v>
+      </c>
+      <c r="F25" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="H25" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A26" s="108" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="112">
-        <v>0</v>
-      </c>
-      <c r="C26" s="112">
+      <c r="B26" s="109">
+        <v>0</v>
+      </c>
+      <c r="C26" s="109">
         <v>818.33333333333337</v>
       </c>
-      <c r="D26" s="112">
+      <c r="D26" s="109">
         <v>818.33333333333337</v>
       </c>
-      <c r="E26" s="110">
+      <c r="E26" s="107">
         <v>818.33</v>
       </c>
-      <c r="F26" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A27" s="111" t="s">
+      <c r="F26" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A27" s="108" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="112">
-        <v>0</v>
-      </c>
-      <c r="C27" s="112">
+      <c r="B27" s="109">
+        <v>0</v>
+      </c>
+      <c r="C27" s="109">
         <v>1038.3333333333335</v>
       </c>
-      <c r="D27" s="112">
+      <c r="D27" s="109">
         <v>1038.3333333333335</v>
       </c>
-      <c r="F27" s="117">
+      <c r="F27" s="114">
         <f t="shared" si="0"/>
         <v>1038</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A28" s="111" t="s">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A28" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="112">
+      <c r="B28" s="109">
         <v>11056</v>
       </c>
-      <c r="C28" s="112">
+      <c r="C28" s="109">
         <v>4859.333333333333</v>
       </c>
-      <c r="D28" s="112">
+      <c r="D28" s="109">
         <v>15915.333333333332</v>
       </c>
-      <c r="F28" s="117">
-        <f t="shared" si="0"/>
+      <c r="E28" s="107">
         <v>15915</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A29" s="111" t="s">
+      <c r="F28" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A29" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="112">
-        <v>0</v>
-      </c>
-      <c r="C29" s="112">
+      <c r="B29" s="109">
+        <v>0</v>
+      </c>
+      <c r="C29" s="109">
         <v>10730.333333333334</v>
       </c>
-      <c r="D29" s="112">
+      <c r="D29" s="109">
         <v>10730.333333333334</v>
       </c>
-      <c r="F29" s="117">
+      <c r="F29" s="114">
         <f t="shared" si="0"/>
         <v>10730</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A30" s="111" t="s">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A30" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="112">
-        <v>0</v>
-      </c>
-      <c r="C30" s="112">
+      <c r="B30" s="109">
+        <v>0</v>
+      </c>
+      <c r="C30" s="109">
         <v>3218.3333333333344</v>
       </c>
-      <c r="D30" s="112">
+      <c r="D30" s="109">
         <v>3218.3333333333344</v>
       </c>
-      <c r="F30" s="117">
+      <c r="F30" s="114">
         <f t="shared" si="0"/>
         <v>3218</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A31" s="111" t="s">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A31" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="B31" s="112">
-        <v>0</v>
-      </c>
-      <c r="C31" s="112">
+      <c r="B31" s="109">
+        <v>0</v>
+      </c>
+      <c r="C31" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D31" s="112">
+      <c r="D31" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="F31" s="117">
+      <c r="E31" s="107">
+        <v>794.33</v>
+      </c>
+      <c r="F31" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A32" s="108" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="109">
+        <v>0</v>
+      </c>
+      <c r="C32" s="109">
+        <v>794.33333333333337</v>
+      </c>
+      <c r="D32" s="109">
+        <v>794.33333333333337</v>
+      </c>
+      <c r="F32" s="114">
         <f t="shared" si="0"/>
         <v>794</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A32" s="111" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32" s="112">
-        <v>0</v>
-      </c>
-      <c r="C32" s="112">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A33" s="108" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="109">
+        <v>0</v>
+      </c>
+      <c r="C33" s="109">
+        <v>807.33333333333337</v>
+      </c>
+      <c r="D33" s="109">
+        <v>807.33333333333337</v>
+      </c>
+      <c r="F33" s="114">
+        <f t="shared" si="0"/>
+        <v>807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A34" s="108" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="109">
+        <v>0</v>
+      </c>
+      <c r="C34" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D32" s="112">
+      <c r="D34" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="F32" s="117">
+      <c r="F34" s="114">
         <f t="shared" si="0"/>
         <v>794</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="111" t="s">
-        <v>32</v>
-      </c>
-      <c r="B33" s="112">
-        <v>0</v>
-      </c>
-      <c r="C33" s="112">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A35" s="108" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="109">
+        <v>2990</v>
+      </c>
+      <c r="C35" s="109">
+        <v>2503.3333333333344</v>
+      </c>
+      <c r="D35" s="109">
+        <v>5493.3333333333339</v>
+      </c>
+      <c r="F35" s="114">
+        <f t="shared" si="0"/>
+        <v>5493</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A36" s="108" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="109">
+        <v>0</v>
+      </c>
+      <c r="C36" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="D33" s="112">
+      <c r="D36" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="F33" s="117">
-        <f t="shared" si="0"/>
-        <v>807</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="111" t="s">
-        <v>33</v>
-      </c>
-      <c r="B34" s="112">
-        <v>0</v>
-      </c>
-      <c r="C34" s="112">
+      <c r="E36" s="107">
+        <v>807.33</v>
+      </c>
+      <c r="F36" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H36" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A37" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="109">
+        <v>2604</v>
+      </c>
+      <c r="C37" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D34" s="112">
+      <c r="D37" s="109">
+        <v>3398.3333333333335</v>
+      </c>
+      <c r="F37" s="114">
+        <f t="shared" si="0"/>
+        <v>3398</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A38" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="109">
+        <v>0</v>
+      </c>
+      <c r="C38" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="F34" s="117">
+      <c r="D38" s="109">
+        <v>794.33333333333337</v>
+      </c>
+      <c r="F38" s="114">
         <f t="shared" si="0"/>
         <v>794</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="111" t="s">
-        <v>34</v>
-      </c>
-      <c r="B35" s="112">
-        <v>2990</v>
-      </c>
-      <c r="C35" s="112">
-        <v>2503.3333333333344</v>
-      </c>
-      <c r="D35" s="112">
-        <v>5493.3333333333339</v>
-      </c>
-      <c r="F35" s="117">
-        <f t="shared" si="0"/>
-        <v>5493</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="111" t="s">
-        <v>35</v>
-      </c>
-      <c r="B36" s="112">
-        <v>0</v>
-      </c>
-      <c r="C36" s="112">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A39" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="109">
+        <v>0</v>
+      </c>
+      <c r="C39" s="109">
+        <v>794.33333333333337</v>
+      </c>
+      <c r="D39" s="109">
+        <v>794.33333333333337</v>
+      </c>
+      <c r="F39" s="114">
+        <f t="shared" si="0"/>
+        <v>794</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A40" s="108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="109">
+        <v>787</v>
+      </c>
+      <c r="C40" s="109">
+        <v>822.33333333333337</v>
+      </c>
+      <c r="D40" s="109">
+        <v>1609.3333333333335</v>
+      </c>
+      <c r="F40" s="114">
+        <f t="shared" si="0"/>
+        <v>1609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A41" s="108" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41" s="109">
+        <v>0</v>
+      </c>
+      <c r="C41" s="109">
+        <v>809.33333333333337</v>
+      </c>
+      <c r="D41" s="109">
+        <v>809.33333333333337</v>
+      </c>
+      <c r="F41" s="114">
+        <f t="shared" si="0"/>
+        <v>809</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A42" s="110">
+        <v>101</v>
+      </c>
+      <c r="B42" s="109">
+        <v>0</v>
+      </c>
+      <c r="C42" s="109">
+        <v>1828.3333333333344</v>
+      </c>
+      <c r="D42" s="109">
+        <v>1828.3333333333344</v>
+      </c>
+      <c r="E42" s="107">
+        <v>1828</v>
+      </c>
+      <c r="F42" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G42" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H42" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A43" s="110" t="s">
+        <v>41</v>
+      </c>
+      <c r="B43" s="109">
+        <v>0</v>
+      </c>
+      <c r="C43" s="109">
+        <v>1705.3333333333326</v>
+      </c>
+      <c r="D43" s="109">
+        <v>1705.3333333333326</v>
+      </c>
+      <c r="E43" s="107">
+        <v>1705</v>
+      </c>
+      <c r="F43" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G43" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H43" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A44" s="110">
+        <v>102</v>
+      </c>
+      <c r="B44" s="109">
+        <v>2221</v>
+      </c>
+      <c r="C44" s="109">
+        <v>2424.3333333333335</v>
+      </c>
+      <c r="D44" s="109">
+        <v>4645.3333333333339</v>
+      </c>
+      <c r="F44" s="114">
+        <f t="shared" si="0"/>
+        <v>4645</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A45" s="110">
+        <v>103</v>
+      </c>
+      <c r="B45" s="109">
+        <v>12091</v>
+      </c>
+      <c r="C45" s="109">
+        <v>3724.3333333333335</v>
+      </c>
+      <c r="D45" s="109">
+        <v>15815.333333333334</v>
+      </c>
+      <c r="F45" s="114">
+        <f t="shared" si="0"/>
+        <v>15815</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A46" s="110">
+        <v>104</v>
+      </c>
+      <c r="B46" s="109">
+        <v>10180</v>
+      </c>
+      <c r="C46" s="109">
+        <v>4135.333333333333</v>
+      </c>
+      <c r="D46" s="109">
+        <v>14315.333333333332</v>
+      </c>
+      <c r="F46" s="114">
+        <f t="shared" si="0"/>
+        <v>14315</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A47" s="110">
+        <v>105</v>
+      </c>
+      <c r="B47" s="109">
+        <v>0</v>
+      </c>
+      <c r="C47" s="109">
+        <v>3722.3333333333353</v>
+      </c>
+      <c r="D47" s="109">
+        <v>3722.3333333333353</v>
+      </c>
+      <c r="E47" s="107">
+        <v>3722.33</v>
+      </c>
+      <c r="F47" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G47" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A48" s="110">
+        <v>106</v>
+      </c>
+      <c r="B48" s="109">
+        <v>763</v>
+      </c>
+      <c r="C48" s="109">
+        <v>806.33333333333337</v>
+      </c>
+      <c r="D48" s="109">
+        <v>1569.3333333333335</v>
+      </c>
+      <c r="F48" s="114">
+        <f t="shared" si="0"/>
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A49" s="110" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49" s="109">
+        <v>2672</v>
+      </c>
+      <c r="C49" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="D36" s="112">
+      <c r="D49" s="109">
+        <v>3479.3333333333335</v>
+      </c>
+      <c r="F49" s="114">
+        <f t="shared" si="0"/>
+        <v>3479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" s="110">
+        <v>107</v>
+      </c>
+      <c r="B50" s="109">
+        <v>0</v>
+      </c>
+      <c r="C50" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="E36" s="110">
+      <c r="D50" s="109">
+        <v>807.33333333333337</v>
+      </c>
+      <c r="E50" s="107">
         <v>807.33</v>
       </c>
-      <c r="F36" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="110" t="s">
+      <c r="F50" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="H50" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" s="110">
+        <v>108</v>
+      </c>
+      <c r="B51" s="109">
+        <v>2682</v>
+      </c>
+      <c r="C51" s="109">
+        <v>833.33333333333348</v>
+      </c>
+      <c r="D51" s="109">
+        <v>3515.3333333333335</v>
+      </c>
+      <c r="F51" s="114">
+        <f t="shared" si="0"/>
+        <v>3515</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" s="110" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="109">
+        <v>0</v>
+      </c>
+      <c r="C52" s="109">
+        <v>826.33333333333337</v>
+      </c>
+      <c r="D52" s="109">
+        <v>826.33333333333337</v>
+      </c>
+      <c r="E52" s="107">
+        <v>826.33</v>
+      </c>
+      <c r="F52" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G52" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="H36" s="110" t="s">
+      <c r="H52" s="107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="111" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="112">
-        <v>2604</v>
-      </c>
-      <c r="C37" s="112">
-        <v>794.33333333333337</v>
-      </c>
-      <c r="D37" s="112">
-        <v>3398.3333333333335</v>
-      </c>
-      <c r="F37" s="117">
-        <f t="shared" si="0"/>
-        <v>3398</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="111" t="s">
-        <v>37</v>
-      </c>
-      <c r="B38" s="112">
-        <v>0</v>
-      </c>
-      <c r="C38" s="112">
-        <v>794.33333333333337</v>
-      </c>
-      <c r="D38" s="112">
-        <v>794.33333333333337</v>
-      </c>
-      <c r="F38" s="117">
-        <f t="shared" si="0"/>
-        <v>794</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="111" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="112">
-        <v>0</v>
-      </c>
-      <c r="C39" s="112">
-        <v>794.33333333333337</v>
-      </c>
-      <c r="D39" s="112">
-        <v>794.33333333333337</v>
-      </c>
-      <c r="F39" s="117">
-        <f t="shared" si="0"/>
-        <v>794</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="111" t="s">
-        <v>39</v>
-      </c>
-      <c r="B40" s="112">
-        <v>787</v>
-      </c>
-      <c r="C40" s="112">
-        <v>822.33333333333337</v>
-      </c>
-      <c r="D40" s="112">
-        <v>1609.3333333333335</v>
-      </c>
-      <c r="F40" s="117">
-        <f t="shared" si="0"/>
-        <v>1609</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="111" t="s">
-        <v>40</v>
-      </c>
-      <c r="B41" s="112">
-        <v>0</v>
-      </c>
-      <c r="C41" s="112">
-        <v>809.33333333333337</v>
-      </c>
-      <c r="D41" s="112">
-        <v>809.33333333333337</v>
-      </c>
-      <c r="F41" s="117">
-        <f t="shared" si="0"/>
-        <v>809</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="113">
-        <v>101</v>
-      </c>
-      <c r="B42" s="112">
-        <v>0</v>
-      </c>
-      <c r="C42" s="112">
-        <v>1828.3333333333344</v>
-      </c>
-      <c r="D42" s="112">
-        <v>1828.3333333333344</v>
-      </c>
-      <c r="E42" s="110">
-        <v>1828</v>
-      </c>
-      <c r="F42" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G42" s="110" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" s="110">
+        <v>109</v>
+      </c>
+      <c r="B53" s="109">
+        <v>0</v>
+      </c>
+      <c r="C53" s="109">
+        <v>808.33333333333337</v>
+      </c>
+      <c r="D53" s="109">
+        <v>808.33333333333337</v>
+      </c>
+      <c r="E53" s="107">
+        <v>808.33</v>
+      </c>
+      <c r="F53" s="114">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G53" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="H42" s="110" t="s">
+      <c r="H53" s="107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="113" t="s">
-        <v>41</v>
-      </c>
-      <c r="B43" s="112">
-        <v>0</v>
-      </c>
-      <c r="C43" s="112">
-        <v>1705.3333333333326</v>
-      </c>
-      <c r="D43" s="112">
-        <v>1705.3333333333326</v>
-      </c>
-      <c r="E43" s="110">
-        <v>1705</v>
-      </c>
-      <c r="F43" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G43" s="110" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" s="110">
+        <v>110</v>
+      </c>
+      <c r="B54" s="109">
+        <v>2578</v>
+      </c>
+      <c r="C54" s="109">
+        <v>807.33333333333337</v>
+      </c>
+      <c r="D54" s="109">
+        <v>3385.3333333333335</v>
+      </c>
+      <c r="F54" s="114">
+        <f t="shared" si="0"/>
+        <v>3385</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" s="114" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A55" s="111">
+        <v>111</v>
+      </c>
+      <c r="B55" s="112">
+        <v>0</v>
+      </c>
+      <c r="C55" s="112">
+        <v>806.33333333333337</v>
+      </c>
+      <c r="D55" s="112">
+        <v>806.33333333333337</v>
+      </c>
+      <c r="E55" s="113">
+        <v>806.3</v>
+      </c>
+      <c r="F55" s="114">
+        <f>ROUND(D55-E55,)</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="114" t="s">
         <v>217</v>
       </c>
-      <c r="H43" s="110" t="s">
+      <c r="H55" s="114" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="113">
-        <v>102</v>
-      </c>
-      <c r="B44" s="112">
-        <v>2221</v>
-      </c>
-      <c r="C44" s="112">
-        <v>2424.3333333333335</v>
-      </c>
-      <c r="D44" s="112">
-        <v>4645.3333333333339</v>
-      </c>
-      <c r="F44" s="117">
-        <f t="shared" si="0"/>
-        <v>4645</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="113">
-        <v>103</v>
-      </c>
-      <c r="B45" s="112">
-        <v>12091</v>
-      </c>
-      <c r="C45" s="112">
-        <v>3724.3333333333335</v>
-      </c>
-      <c r="D45" s="112">
-        <v>15815.333333333334</v>
-      </c>
-      <c r="F45" s="117">
-        <f t="shared" si="0"/>
-        <v>15815</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="113">
-        <v>104</v>
-      </c>
-      <c r="B46" s="112">
-        <v>10180</v>
-      </c>
-      <c r="C46" s="112">
-        <v>4135.333333333333</v>
-      </c>
-      <c r="D46" s="112">
-        <v>14315.333333333332</v>
-      </c>
-      <c r="F46" s="117">
-        <f t="shared" si="0"/>
-        <v>14315</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="113">
-        <v>105</v>
-      </c>
-      <c r="B47" s="112">
-        <v>0</v>
-      </c>
-      <c r="C47" s="112">
-        <v>3722.3333333333353</v>
-      </c>
-      <c r="D47" s="112">
-        <v>3722.3333333333353</v>
-      </c>
-      <c r="F47" s="117">
-        <f t="shared" si="0"/>
-        <v>3722</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="113">
-        <v>106</v>
-      </c>
-      <c r="B48" s="112">
-        <v>763</v>
-      </c>
-      <c r="C48" s="112">
-        <v>806.33333333333337</v>
-      </c>
-      <c r="D48" s="112">
-        <v>1569.3333333333335</v>
-      </c>
-      <c r="F48" s="117">
-        <f t="shared" si="0"/>
-        <v>1569</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="113" t="s">
-        <v>42</v>
-      </c>
-      <c r="B49" s="112">
-        <v>2672</v>
-      </c>
-      <c r="C49" s="112">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" s="110">
+        <v>112</v>
+      </c>
+      <c r="B56" s="109">
+        <v>2581</v>
+      </c>
+      <c r="C56" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="D49" s="112">
-        <v>3479.3333333333335</v>
-      </c>
-      <c r="F49" s="117">
-        <f t="shared" si="0"/>
-        <v>3479</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="113">
-        <v>107</v>
-      </c>
-      <c r="B50" s="112">
-        <v>0</v>
-      </c>
-      <c r="C50" s="112">
-        <v>807.33333333333337</v>
-      </c>
-      <c r="D50" s="112">
-        <v>807.33333333333337</v>
-      </c>
-      <c r="E50" s="110">
-        <v>807.33</v>
-      </c>
-      <c r="F50" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G50" s="110" t="s">
-        <v>228</v>
-      </c>
-      <c r="H50" s="110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="113">
-        <v>108</v>
-      </c>
-      <c r="B51" s="112">
-        <v>2682</v>
-      </c>
-      <c r="C51" s="112">
-        <v>833.33333333333348</v>
-      </c>
-      <c r="D51" s="112">
-        <v>3515.3333333333335</v>
-      </c>
-      <c r="F51" s="117">
-        <f t="shared" si="0"/>
-        <v>3515</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="113" t="s">
-        <v>43</v>
-      </c>
-      <c r="B52" s="112">
-        <v>0</v>
-      </c>
-      <c r="C52" s="112">
-        <v>826.33333333333337</v>
-      </c>
-      <c r="D52" s="112">
-        <v>826.33333333333337</v>
-      </c>
-      <c r="F52" s="117">
-        <f t="shared" si="0"/>
-        <v>826</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="113">
-        <v>109</v>
-      </c>
-      <c r="B53" s="112">
-        <v>0</v>
-      </c>
-      <c r="C53" s="112">
-        <v>808.33333333333337</v>
-      </c>
-      <c r="D53" s="112">
-        <v>808.33333333333337</v>
-      </c>
-      <c r="E53" s="110">
-        <v>808.33</v>
-      </c>
-      <c r="F53" s="117">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G53" s="110" t="s">
-        <v>217</v>
-      </c>
-      <c r="H53" s="110" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="113">
-        <v>110</v>
-      </c>
-      <c r="B54" s="112">
-        <v>2578</v>
-      </c>
-      <c r="C54" s="112">
-        <v>807.33333333333337</v>
-      </c>
-      <c r="D54" s="112">
-        <v>3385.3333333333335</v>
-      </c>
-      <c r="F54" s="117">
-        <f t="shared" si="0"/>
-        <v>3385</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" s="117" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="114">
-        <v>111</v>
-      </c>
-      <c r="B55" s="115">
-        <v>0</v>
-      </c>
-      <c r="C55" s="115">
-        <v>806.33333333333337</v>
-      </c>
-      <c r="D55" s="115">
-        <v>806.33333333333337</v>
-      </c>
-      <c r="E55" s="116">
-        <v>806.3</v>
-      </c>
-      <c r="F55" s="117">
-        <f>ROUND(D55-E55,)</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="117" t="s">
-        <v>217</v>
-      </c>
-      <c r="H55" s="117" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="113">
-        <v>112</v>
-      </c>
-      <c r="B56" s="112">
-        <v>2581</v>
-      </c>
-      <c r="C56" s="112">
-        <v>807.33333333333337</v>
-      </c>
-      <c r="D56" s="112">
+      <c r="D56" s="109">
         <v>3388.3333333333335</v>
       </c>
-      <c r="F56" s="117">
+      <c r="F56" s="114">
         <f t="shared" ref="F56:F72" si="1">ROUND(D56-E56,)</f>
         <v>3388</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="113" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" s="110" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="112">
-        <v>0</v>
-      </c>
-      <c r="C57" s="112">
+      <c r="B57" s="109">
+        <v>0</v>
+      </c>
+      <c r="C57" s="109">
         <v>806.33333333333337</v>
       </c>
-      <c r="D57" s="112">
+      <c r="D57" s="109">
         <v>806.33333333333337</v>
       </c>
-      <c r="F57" s="117">
+      <c r="F57" s="114">
         <f t="shared" si="1"/>
         <v>806</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="113">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A58" s="110">
         <v>114</v>
       </c>
-      <c r="B58" s="112">
+      <c r="B58" s="109">
         <v>2786</v>
       </c>
-      <c r="C58" s="112">
+      <c r="C58" s="109">
         <v>807.33333333333337</v>
       </c>
-      <c r="D58" s="112">
+      <c r="D58" s="109">
         <v>3593.3333333333335</v>
       </c>
-      <c r="F58" s="117">
+      <c r="F58" s="114">
         <f t="shared" si="1"/>
         <v>3593</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="113" t="s">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A59" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B59" s="112">
-        <v>0</v>
-      </c>
-      <c r="C59" s="112">
+      <c r="B59" s="109">
+        <v>0</v>
+      </c>
+      <c r="C59" s="109">
         <v>815.33333333333337</v>
       </c>
-      <c r="D59" s="112">
+      <c r="D59" s="109">
         <v>815.33333333333337</v>
       </c>
-      <c r="E59" s="110">
+      <c r="E59" s="107">
         <v>815.33</v>
       </c>
-      <c r="F59" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="110" t="s">
+      <c r="F59" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="H59" s="110" t="s">
+      <c r="H59" s="107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="113" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B60" s="112">
-        <v>0</v>
-      </c>
-      <c r="C60" s="112">
+      <c r="B60" s="109">
+        <v>0</v>
+      </c>
+      <c r="C60" s="109">
         <v>880.33333333333326</v>
       </c>
-      <c r="D60" s="112">
+      <c r="D60" s="109">
         <v>880.33333333333326</v>
       </c>
-      <c r="E60" s="110">
+      <c r="E60" s="107">
         <v>880</v>
       </c>
-      <c r="F60" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="110" t="s">
+      <c r="F60" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="107" t="s">
         <v>217</v>
       </c>
-      <c r="H60" s="110" t="s">
+      <c r="H60" s="107" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="113">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" s="110">
         <v>115</v>
       </c>
-      <c r="B61" s="112">
+      <c r="B61" s="109">
         <v>2620</v>
       </c>
-      <c r="C61" s="112">
+      <c r="C61" s="109">
         <v>806.33333333333337</v>
       </c>
-      <c r="D61" s="112">
+      <c r="D61" s="109">
         <v>3426.3333333333335</v>
       </c>
-      <c r="F61" s="117">
+      <c r="F61" s="114">
         <f t="shared" si="1"/>
         <v>3426</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="113">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" s="110">
         <v>116</v>
       </c>
-      <c r="B62" s="112">
-        <v>0</v>
-      </c>
-      <c r="C62" s="112">
+      <c r="B62" s="109">
+        <v>0</v>
+      </c>
+      <c r="C62" s="109">
         <v>801.33333333333337</v>
       </c>
-      <c r="D62" s="112">
+      <c r="D62" s="109">
         <v>801.33333333333337</v>
       </c>
-      <c r="F62" s="117">
-        <f t="shared" si="1"/>
-        <v>801</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="113">
+      <c r="E62" s="107">
+        <v>801.33</v>
+      </c>
+      <c r="F62" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="107" t="s">
+        <v>179</v>
+      </c>
+      <c r="H62" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" s="110">
         <v>117</v>
       </c>
-      <c r="B63" s="112">
+      <c r="B63" s="109">
         <v>2649</v>
       </c>
-      <c r="C63" s="112">
+      <c r="C63" s="109">
         <v>815.33333333333337</v>
       </c>
-      <c r="D63" s="112">
+      <c r="D63" s="109">
         <v>3464.3333333333335</v>
       </c>
-      <c r="F63" s="117">
-        <f t="shared" si="1"/>
-        <v>3464</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="113">
+      <c r="E63" s="107">
+        <v>3465</v>
+      </c>
+      <c r="F63" s="114">
+        <f t="shared" si="1"/>
+        <v>-1</v>
+      </c>
+      <c r="G63" s="107" t="s">
+        <v>217</v>
+      </c>
+      <c r="H63" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A64" s="110">
         <v>118</v>
       </c>
-      <c r="B64" s="112">
-        <v>0</v>
-      </c>
-      <c r="C64" s="112">
+      <c r="B64" s="109">
+        <v>0</v>
+      </c>
+      <c r="C64" s="109">
         <v>899.33333333333337</v>
       </c>
-      <c r="D64" s="112">
+      <c r="D64" s="109">
         <v>899.33333333333337</v>
       </c>
-      <c r="E64" s="110">
+      <c r="E64" s="107">
         <v>899</v>
       </c>
-      <c r="F64" s="117">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G64" s="110" t="s">
+      <c r="F64" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G64" s="107" t="s">
         <v>232</v>
       </c>
-      <c r="H64" s="110" t="s">
+      <c r="H64" s="107" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A65" s="113">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A65" s="110">
         <v>119</v>
       </c>
-      <c r="B65" s="112">
-        <v>0</v>
-      </c>
-      <c r="C65" s="112">
+      <c r="B65" s="109">
+        <v>0</v>
+      </c>
+      <c r="C65" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D65" s="112">
+      <c r="D65" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="F65" s="117">
+      <c r="F65" s="114">
         <f t="shared" si="1"/>
         <v>794</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A66" s="113">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A66" s="110">
         <v>120</v>
       </c>
-      <c r="B66" s="112">
-        <v>0</v>
-      </c>
-      <c r="C66" s="112">
+      <c r="B66" s="109">
+        <v>0</v>
+      </c>
+      <c r="C66" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="D66" s="112">
+      <c r="D66" s="109">
         <v>794.33333333333337</v>
       </c>
-      <c r="F66" s="117">
+      <c r="F66" s="114">
         <f t="shared" si="1"/>
         <v>794</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A67" s="113">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A67" s="110">
         <v>121</v>
       </c>
-      <c r="B67" s="112">
+      <c r="B67" s="109">
         <v>764</v>
       </c>
-      <c r="C67" s="112">
+      <c r="C67" s="109">
         <v>819.33333333333337</v>
       </c>
-      <c r="D67" s="112">
+      <c r="D67" s="109">
         <v>1583.3333333333335</v>
       </c>
-      <c r="F67" s="117">
+      <c r="F67" s="114">
         <f t="shared" si="1"/>
         <v>1583</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A68" s="113" t="s">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A68" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="B68" s="112">
+      <c r="B68" s="109">
         <v>6691</v>
       </c>
-      <c r="C68" s="112">
+      <c r="C68" s="109">
         <v>5229.333333333333</v>
       </c>
-      <c r="D68" s="112">
+      <c r="D68" s="109">
         <v>11920.333333333332</v>
       </c>
-      <c r="F68" s="117">
-        <f t="shared" si="1"/>
+      <c r="E68" s="107">
         <v>11920</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A69" s="113">
+      <c r="F68" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G68" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="H68" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A69" s="110">
         <v>123</v>
       </c>
-      <c r="B69" s="112">
+      <c r="B69" s="109">
         <v>16014</v>
       </c>
-      <c r="C69" s="112">
+      <c r="C69" s="109">
         <v>22072.333333333332</v>
       </c>
-      <c r="D69" s="112">
+      <c r="D69" s="109">
         <v>38086.333333333328</v>
       </c>
-      <c r="F69" s="117">
+      <c r="F69" s="114">
         <f t="shared" si="1"/>
         <v>38086</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A70" s="113">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A70" s="110">
         <v>124</v>
       </c>
-      <c r="B70" s="112">
-        <v>0</v>
-      </c>
-      <c r="C70" s="112">
+      <c r="B70" s="109">
+        <v>0</v>
+      </c>
+      <c r="C70" s="109">
         <v>1333.3333333333335</v>
       </c>
-      <c r="D70" s="112">
+      <c r="D70" s="109">
         <v>1333.3333333333335</v>
       </c>
-      <c r="F70" s="117">
-        <f t="shared" si="1"/>
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A71" s="113">
+      <c r="E70" s="107">
+        <v>1333.33</v>
+      </c>
+      <c r="F70" s="114">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G70" s="107" t="s">
+        <v>232</v>
+      </c>
+      <c r="H70" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" s="110">
         <v>125</v>
       </c>
-      <c r="B71" s="112">
-        <v>0</v>
-      </c>
-      <c r="C71" s="112">
+      <c r="B71" s="109">
+        <v>0</v>
+      </c>
+      <c r="C71" s="109">
         <v>855.33333333333337</v>
       </c>
-      <c r="D71" s="112">
+      <c r="D71" s="109">
         <v>855.33333333333337</v>
       </c>
-      <c r="F71" s="117">
+      <c r="F71" s="114">
         <f t="shared" si="1"/>
         <v>855</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A72" s="113">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" s="110">
         <v>126</v>
       </c>
-      <c r="B72" s="112">
-        <v>0</v>
-      </c>
-      <c r="C72" s="112">
+      <c r="B72" s="109">
+        <v>0</v>
+      </c>
+      <c r="C72" s="109">
         <v>814.33333333333337</v>
       </c>
-      <c r="D72" s="112">
+      <c r="D72" s="109">
         <v>814.33333333333337</v>
       </c>
-      <c r="F72" s="117">
+      <c r="F72" s="114">
         <f t="shared" si="1"/>
         <v>814</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A73" s="118"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A74" s="112"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A75" s="112"/>
+      <c r="G72" s="107" t="s">
+        <v>228</v>
+      </c>
+      <c r="H72" s="107" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A73" s="115"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A74" s="109"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A75" s="109"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6590,20 +6858,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C901BC-37D1-4CF5-9271-04B7C9971E6A}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView zoomScale="134" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="40.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="40.88671875" customWidth="1"/>
     <col min="4" max="4" width="25" style="3" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B1" s="81" t="s">
         <v>205</v>
       </c>
@@ -6623,7 +6891,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E2" s="38">
         <v>45686</v>
       </c>
@@ -6637,7 +6905,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E3" s="38">
         <v>45706</v>
       </c>
@@ -6651,7 +6919,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E4" s="38">
         <v>45733</v>
       </c>
@@ -6665,7 +6933,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E5" s="38">
         <v>45727</v>
       </c>
@@ -6679,7 +6947,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E6" s="38">
         <v>111491</v>
       </c>
@@ -6693,7 +6961,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>239</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>240</v>
+      </c>
       <c r="E7" s="38">
         <v>45757</v>
       </c>
@@ -6708,7 +6982,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="E8" s="38">
         <v>45761</v>
       </c>
@@ -6722,7 +6996,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>157</v>
       </c>
@@ -6743,9 +7017,13 @@
         <v>182</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>153</v>
+      </c>
+      <c r="C10">
+        <f>14965+11920</f>
+        <v>26885</v>
       </c>
       <c r="D10" s="3">
         <f>79115+0</f>
@@ -6764,13 +7042,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>154</v>
       </c>
       <c r="C11">
-        <f>8034+8200+16081+3778+7644+8725+9960+3585+5636</f>
-        <v>71643</v>
+        <f>8034+8200+16081+3778+7644+8725+9960+3585+5636+10096+21628+8998+4207+16101+12454+6686+5567+3465+7382</f>
+        <v>168227</v>
       </c>
       <c r="D11" s="3">
         <f>65120+3611+2583+2530-18348</f>
@@ -6789,12 +7067,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>156</v>
       </c>
       <c r="C12">
-        <v>7201</v>
+        <f>7201+6591</f>
+        <v>13792</v>
       </c>
       <c r="D12" s="3">
         <f>111280+0</f>
@@ -6813,10 +7092,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>176</v>
       </c>
+      <c r="C13">
+        <f>14785+12104</f>
+        <v>26889</v>
+      </c>
       <c r="D13" s="3">
         <v>0</v>
       </c>
@@ -6833,13 +7116,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="104" t="s">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C14" s="119">
-        <f>14968+7291</f>
-        <v>22259</v>
+      <c r="C14" s="116">
+        <f>14968+7291+6498</f>
+        <v>28757</v>
       </c>
       <c r="E14" s="38">
         <v>45769</v>
@@ -6854,11 +7137,14 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3">
+        <f>SUM(C9:C14)</f>
+        <v>264550</v>
+      </c>
       <c r="D15" s="3">
         <f>SUM(D9:D14)</f>
         <v>271271</v>
@@ -6871,15 +7157,15 @@
         <v>899456</v>
       </c>
     </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="E18" s="38">
@@ -6895,7 +7181,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="7"/>
@@ -6912,23 +7198,23 @@
         <v>204</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="26"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="F20" s="21"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="26"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="26"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
     </row>
@@ -6942,28 +7228,28 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C71" sqref="C71"/>
+      <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="0" style="3" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="6.5703125" style="30" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="8.5703125" style="30" customWidth="1"/>
-    <col min="9" max="9" width="7.28515625" style="30" customWidth="1"/>
-    <col min="10" max="10" width="7.5703125" style="30" customWidth="1"/>
-    <col min="11" max="11" width="8.28515625" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5546875" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="6.5546875" style="30" customWidth="1"/>
+    <col min="7" max="7" width="8.6640625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="8.5546875" style="30" customWidth="1"/>
+    <col min="9" max="9" width="7.33203125" style="30" customWidth="1"/>
+    <col min="10" max="10" width="7.5546875" style="30" customWidth="1"/>
+    <col min="11" max="11" width="8.33203125" customWidth="1"/>
+    <col min="12" max="12" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -7001,7 +7287,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -7042,7 +7328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -7083,7 +7369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="6">
         <v>3</v>
       </c>
@@ -7124,7 +7410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="6">
         <v>4</v>
       </c>
@@ -7165,7 +7451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="6">
         <v>5</v>
       </c>
@@ -7206,7 +7492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
         <v>6</v>
       </c>
@@ -7245,7 +7531,7 @@
         <v>10465</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
         <v>7</v>
       </c>
@@ -7286,7 +7572,7 @@
         <v>-500</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="6">
         <v>8</v>
       </c>
@@ -7325,7 +7611,7 @@
         <v>8519</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="6">
         <v>9</v>
       </c>
@@ -7362,7 +7648,7 @@
         <v>5623</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="6">
         <v>10</v>
       </c>
@@ -7403,7 +7689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="6">
         <v>11</v>
       </c>
@@ -7444,7 +7730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="6">
         <v>12</v>
       </c>
@@ -7485,7 +7771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="6">
         <v>13</v>
       </c>
@@ -7526,7 +7812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="6">
         <v>14</v>
       </c>
@@ -7567,7 +7853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="6">
         <v>15</v>
       </c>
@@ -7608,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="6">
         <v>16</v>
       </c>
@@ -7649,7 +7935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="6">
         <v>17</v>
       </c>
@@ -7690,7 +7976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="6">
         <v>18</v>
       </c>
@@ -7731,7 +8017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="6">
         <v>19</v>
       </c>
@@ -7772,7 +8058,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="6">
         <v>20</v>
       </c>
@@ -7813,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6">
         <v>21</v>
       </c>
@@ -7854,7 +8140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="6">
         <v>22</v>
       </c>
@@ -7893,7 +8179,7 @@
         <v>13427</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="6">
         <v>23</v>
       </c>
@@ -7934,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="6">
         <v>24</v>
       </c>
@@ -7975,7 +8261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="6">
         <v>25</v>
       </c>
@@ -8016,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="6">
         <v>26</v>
       </c>
@@ -8057,7 +8343,7 @@
         <v>-430</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="6">
         <v>27</v>
       </c>
@@ -8096,7 +8382,7 @@
         <v>12338</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="6">
         <v>28</v>
       </c>
@@ -8135,7 +8421,7 @@
         <v>6389</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="6">
         <v>29</v>
       </c>
@@ -8176,7 +8462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="6">
         <v>30</v>
       </c>
@@ -8217,7 +8503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="6">
         <v>31</v>
       </c>
@@ -8258,7 +8544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="6">
         <v>32</v>
       </c>
@@ -8299,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="6">
         <v>33</v>
       </c>
@@ -8340,7 +8626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="6">
         <v>34</v>
       </c>
@@ -8379,7 +8665,7 @@
         <v>3555</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6">
         <v>35</v>
       </c>
@@ -8420,7 +8706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="6">
         <v>36</v>
       </c>
@@ -8461,7 +8747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="6">
         <v>37</v>
       </c>
@@ -8502,7 +8788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="6">
         <v>38</v>
       </c>
@@ -8543,7 +8829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="6">
         <v>39</v>
       </c>
@@ -8582,7 +8868,7 @@
         <v>3691</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A41" s="6">
         <v>40</v>
       </c>
@@ -8623,7 +8909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="6">
         <v>41</v>
       </c>
@@ -8664,7 +8950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6">
         <v>42</v>
       </c>
@@ -8705,7 +8991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="6">
         <v>43</v>
       </c>
@@ -8746,7 +9032,7 @@
         <v>9007</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="6">
         <v>44</v>
       </c>
@@ -8785,7 +9071,7 @@
         <v>3210</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="6">
         <v>45</v>
       </c>
@@ -8824,7 +9110,7 @@
         <v>5933</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="6">
         <v>46</v>
       </c>
@@ -8866,7 +9152,7 @@
       </c>
       <c r="M47" s="14"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" s="6">
         <v>47</v>
       </c>
@@ -8905,7 +9191,7 @@
         <v>3183</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="6">
         <v>48</v>
       </c>
@@ -8944,7 +9230,7 @@
         <v>11058</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A50" s="6">
         <v>49</v>
       </c>
@@ -8985,7 +9271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="6">
         <v>50</v>
       </c>
@@ -9024,7 +9310,7 @@
         <v>9029</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="6">
         <v>51</v>
       </c>
@@ -9065,7 +9351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="6">
         <v>52</v>
       </c>
@@ -9106,7 +9392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6">
         <v>53</v>
       </c>
@@ -9145,7 +9431,7 @@
         <v>9307</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="6">
         <v>54</v>
       </c>
@@ -9186,7 +9472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A56" s="6">
         <v>55</v>
       </c>
@@ -9225,7 +9511,7 @@
         <v>11257</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="6">
         <v>56</v>
       </c>
@@ -9266,7 +9552,7 @@
         <v>2700</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="6">
         <v>57</v>
       </c>
@@ -9305,7 +9591,7 @@
         <v>13377</v>
       </c>
     </row>
-    <row r="59" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="6">
         <v>58</v>
       </c>
@@ -9346,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="6">
         <v>59</v>
       </c>
@@ -9387,7 +9673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="6">
         <v>60</v>
       </c>
@@ -9426,7 +9712,7 @@
         <v>21111</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="6">
         <v>61</v>
       </c>
@@ -9467,7 +9753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="6">
         <v>62</v>
       </c>
@@ -9506,7 +9792,7 @@
         <v>10326</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="6">
         <v>63</v>
       </c>
@@ -9547,7 +9833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="6">
         <v>64</v>
       </c>
@@ -9588,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="6">
         <v>65</v>
       </c>
@@ -9629,7 +9915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="6">
         <v>66</v>
       </c>
@@ -9668,7 +9954,7 @@
         <v>3187</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A68" s="6">
         <v>67</v>
       </c>
@@ -9709,7 +9995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A69" s="6">
         <v>68</v>
       </c>
@@ -9748,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="6">
         <v>69</v>
       </c>
@@ -9789,7 +10075,7 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="71" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A71" s="6">
         <v>70</v>
       </c>
@@ -9830,7 +10116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A72" s="6">
         <v>71</v>
       </c>
@@ -9871,7 +10157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="6">
         <v>72</v>
       </c>
@@ -9912,7 +10198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E74" s="2">
         <f>SUM(E2:E73)</f>
         <v>57993</v>
@@ -9935,32 +10221,32 @@
         <v>176922</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C77"/>
       <c r="E77" s="30"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C78" s="2"/>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D84"/>
       <c r="E84" s="30"/>
       <c r="F84" s="33"/>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D85"/>
       <c r="E85" s="30"/>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D86" s="21"/>
       <c r="E86" s="30"/>
       <c r="F86" s="33"/>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D87"/>
       <c r="E87" s="30"/>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D88"/>
       <c r="E88" s="30"/>
     </row>
@@ -9972,19 +10258,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0520B335-6D30-4762-9C4F-D400EB1F105F}">
-  <dimension ref="A1:U75"/>
+  <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U67" sqref="U67"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A44" sqref="A44:R44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="20" max="20" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>138</v>
       </c>
@@ -10049,7 +10335,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
@@ -10122,7 +10408,7 @@
         <v>2136</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
@@ -10191,7 +10477,7 @@
       </c>
       <c r="U3" s="16"/>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
@@ -10261,7 +10547,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
@@ -10334,7 +10620,7 @@
         <v>8354</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
@@ -10407,7 +10693,7 @@
         <v>10203</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
@@ -10476,7 +10762,7 @@
       </c>
       <c r="U7" s="16"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
@@ -10547,7 +10833,7 @@
         <v>3973</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
@@ -10616,7 +10902,7 @@
       </c>
       <c r="U9" s="16"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
@@ -10685,7 +10971,7 @@
       </c>
       <c r="U10" s="16"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="19" t="s">
         <v>10</v>
       </c>
@@ -10758,7 +11044,7 @@
         <v>12321</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="19" t="s">
         <v>11</v>
       </c>
@@ -10831,7 +11117,7 @@
         <v>16777</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="19" t="s">
         <v>12</v>
       </c>
@@ -10904,7 +11190,7 @@
         <v>18135</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="19" t="s">
         <v>13</v>
       </c>
@@ -10977,7 +11263,7 @@
         <v>7799</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="19" t="s">
         <v>14</v>
       </c>
@@ -11050,7 +11336,7 @@
         <v>3124</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="19" t="s">
         <v>15</v>
       </c>
@@ -11121,7 +11407,7 @@
         <v>778</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A17" s="19" t="s">
         <v>16</v>
       </c>
@@ -11194,7 +11480,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
@@ -11265,7 +11551,7 @@
       </c>
       <c r="U18" s="16"/>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A19" s="19" t="s">
         <v>18</v>
       </c>
@@ -11336,7 +11622,7 @@
         <v>2836</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A20" s="19" t="s">
         <v>19</v>
       </c>
@@ -11408,7 +11694,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
         <v>20</v>
       </c>
@@ -11479,7 +11765,7 @@
       </c>
       <c r="U21" s="16"/>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A22" s="19" t="s">
         <v>21</v>
       </c>
@@ -11552,7 +11838,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A23" s="19" t="s">
         <v>22</v>
       </c>
@@ -11621,7 +11907,7 @@
       </c>
       <c r="U23" s="16"/>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A24" s="19" t="s">
         <v>23</v>
       </c>
@@ -11691,7 +11977,7 @@
         <v>2566</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A25" s="19" t="s">
         <v>24</v>
       </c>
@@ -11764,7 +12050,7 @@
         <v>5299</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A26" s="19" t="s">
         <v>25</v>
       </c>
@@ -11835,7 +12121,7 @@
         <v>2530</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A27" s="19" t="s">
         <v>26</v>
       </c>
@@ -11908,7 +12194,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A28" s="19" t="s">
         <v>27</v>
       </c>
@@ -11977,7 +12263,7 @@
       </c>
       <c r="U28" s="16"/>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A29" s="19" t="s">
         <v>28</v>
       </c>
@@ -12050,7 +12336,7 @@
         <v>11079</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A30" s="19" t="s">
         <v>29</v>
       </c>
@@ -12123,7 +12409,7 @@
         <v>3597</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A31" s="19" t="s">
         <v>30</v>
       </c>
@@ -12193,7 +12479,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A32" s="19" t="s">
         <v>31</v>
       </c>
@@ -12263,7 +12549,7 @@
         <v>2612</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="19" t="s">
         <v>32</v>
       </c>
@@ -12332,7 +12618,7 @@
         <v>2564</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="19" t="s">
         <v>33</v>
       </c>
@@ -12402,7 +12688,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="19" t="s">
         <v>34</v>
       </c>
@@ -12473,7 +12759,7 @@
       </c>
       <c r="U35" s="16"/>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="19" t="s">
         <v>35</v>
       </c>
@@ -12544,7 +12830,7 @@
         <v>2556</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>36</v>
       </c>
@@ -12613,7 +12899,7 @@
       </c>
       <c r="U37" s="16"/>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="19" t="s">
         <v>37</v>
       </c>
@@ -12686,7 +12972,7 @@
         <v>747</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="19" t="s">
         <v>38</v>
       </c>
@@ -12756,7 +13042,7 @@
         <v>2551</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A40" s="19" t="s">
         <v>39</v>
       </c>
@@ -12826,7 +13112,7 @@
       </c>
       <c r="U40" s="16"/>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A41" s="19" t="s">
         <v>40</v>
       </c>
@@ -12899,7 +13185,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <v>101</v>
       </c>
@@ -12972,7 +13258,7 @@
         <v>1881</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A43" s="24" t="s">
         <v>41</v>
       </c>
@@ -13045,7 +13331,7 @@
         <v>1829</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <v>102</v>
       </c>
@@ -13115,8 +13401,12 @@
       <c r="U44" s="16">
         <v>2950</v>
       </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="V44">
+        <f>T44-U44</f>
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <v>103</v>
       </c>
@@ -13185,7 +13475,7 @@
       </c>
       <c r="U45" s="16"/>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <v>104</v>
       </c>
@@ -13254,7 +13544,7 @@
       </c>
       <c r="U46" s="16"/>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <v>105</v>
       </c>
@@ -13327,7 +13617,7 @@
         <v>7726</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <v>106</v>
       </c>
@@ -13398,7 +13688,7 @@
       </c>
       <c r="U48" s="16"/>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A49" s="24" t="s">
         <v>42</v>
       </c>
@@ -13467,7 +13757,7 @@
       </c>
       <c r="U49" s="16"/>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <v>107</v>
       </c>
@@ -13540,7 +13830,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <v>108</v>
       </c>
@@ -13609,7 +13899,7 @@
       </c>
       <c r="U51" s="16"/>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A52" s="24" t="s">
         <v>43</v>
       </c>
@@ -13680,7 +13970,7 @@
         <v>2662</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <v>109</v>
       </c>
@@ -13753,7 +14043,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <v>110</v>
       </c>
@@ -13822,7 +14112,7 @@
       </c>
       <c r="U54" s="16"/>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <v>111</v>
       </c>
@@ -13895,7 +14185,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <v>112</v>
       </c>
@@ -13964,7 +14254,7 @@
       </c>
       <c r="U56" s="16"/>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="24" t="s">
         <v>44</v>
       </c>
@@ -14035,7 +14325,7 @@
         <v>2707</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <v>114</v>
       </c>
@@ -14103,7 +14393,7 @@
       </c>
       <c r="U58" s="16"/>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A59" s="24" t="s">
         <v>45</v>
       </c>
@@ -14176,7 +14466,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A60" s="24" t="s">
         <v>46</v>
       </c>
@@ -14249,7 +14539,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A61" s="24">
         <v>115</v>
       </c>
@@ -14318,7 +14608,7 @@
       </c>
       <c r="U61" s="16"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A62" s="24">
         <v>116</v>
       </c>
@@ -14389,7 +14679,7 @@
         <v>2583</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A63" s="24">
         <v>117</v>
       </c>
@@ -14458,7 +14748,7 @@
       </c>
       <c r="U63" s="16"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A64" s="24">
         <v>118</v>
       </c>
@@ -14531,7 +14821,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="24">
         <v>119</v>
       </c>
@@ -14602,7 +14892,7 @@
         <v>2557</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="24">
         <v>120</v>
       </c>
@@ -14673,7 +14963,7 @@
         <v>2634</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="24">
         <v>121</v>
       </c>
@@ -14744,7 +15034,7 @@
       </c>
       <c r="U67" s="16"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="24" t="s">
         <v>149</v>
       </c>
@@ -14815,7 +15105,7 @@
       </c>
       <c r="U68" s="16"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="24">
         <v>123</v>
       </c>
@@ -14886,7 +15176,7 @@
       </c>
       <c r="U69" s="16"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="24">
         <v>124</v>
       </c>
@@ -14959,7 +15249,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="24">
         <v>125</v>
       </c>
@@ -15032,7 +15322,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="24">
         <v>126</v>
       </c>
@@ -15102,7 +15392,7 @@
         <v>2736</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="16"/>
       <c r="B73" s="16"/>
       <c r="C73" s="16"/>
@@ -15147,7 +15437,7 @@
         <v>171403</v>
       </c>
     </row>
-    <row r="74" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="16"/>
       <c r="B74" s="16"/>
       <c r="C74" s="16"/>
@@ -15179,7 +15469,7 @@
       <c r="T74" s="16"/>
       <c r="U74" s="16"/>
     </row>
-    <row r="75" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="16"/>
       <c r="B75" s="16"/>
       <c r="C75" s="16"/>

--- a/Maintenance may june.xlsx
+++ b/Maintenance may june.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1BAB66F-C519-44B0-9CB4-7D3EDF0454AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07598EAE-5BE9-43DA-9D4C-32F89AFB70F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{18F95FEC-B9AA-4F82-AECF-118895130A20}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="242">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -1788,8 +1788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55C56038-014C-446F-8809-AF3D7B4BA2C5}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="B21" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView topLeftCell="B11" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
@@ -2356,11 +2356,20 @@
         <v>6020</v>
       </c>
       <c r="K12" s="49">
-        <v>0</v>
+        <v>6020</v>
+      </c>
+      <c r="L12" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="M12" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="N12" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="O12" s="50">
         <f t="shared" si="0"/>
-        <v>6020</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.35">
@@ -2824,11 +2833,20 @@
         <v>6292</v>
       </c>
       <c r="K22" s="49">
-        <v>0</v>
+        <v>6292</v>
+      </c>
+      <c r="L22" s="89" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="89" t="s">
+        <v>180</v>
+      </c>
+      <c r="N22" s="50" t="s">
+        <v>231</v>
       </c>
       <c r="O22" s="50">
         <f t="shared" si="0"/>
-        <v>6292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:15" s="67" customFormat="1" x14ac:dyDescent="0.35">
@@ -5181,7 +5199,7 @@
       </c>
       <c r="K74" s="50">
         <f>SUM(K2:K73)</f>
-        <v>177638</v>
+        <v>189950</v>
       </c>
       <c r="L74" s="92"/>
       <c r="M74" s="92"/>
@@ -5299,8 +5317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0F34115-B558-4DAE-88E2-CFCAD6F6585E}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -5569,9 +5587,18 @@
       <c r="D12" s="109">
         <v>13104.333333333334</v>
       </c>
+      <c r="E12" s="107">
+        <v>13104.33</v>
+      </c>
       <c r="F12" s="114">
         <f t="shared" si="0"/>
-        <v>13104</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="H12" s="107" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
@@ -5776,9 +5803,18 @@
       <c r="D22" s="109">
         <v>2089.3333333333335</v>
       </c>
+      <c r="E22" s="107">
+        <v>2089.33</v>
+      </c>
       <c r="F22" s="114">
         <f t="shared" si="0"/>
-        <v>2089</v>
+        <v>0</v>
+      </c>
+      <c r="G22" s="107" t="s">
+        <v>52</v>
+      </c>
+      <c r="H22" s="107" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
@@ -6859,7 +6895,7 @@
   <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="134" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7022,8 +7058,8 @@
         <v>153</v>
       </c>
       <c r="C10">
-        <f>14965+11920</f>
-        <v>26885</v>
+        <f>14965+11920+19124+8381</f>
+        <v>54390</v>
       </c>
       <c r="D10" s="3">
         <f>79115+0</f>
@@ -7143,7 +7179,7 @@
       </c>
       <c r="C15" s="3">
         <f>SUM(C9:C14)</f>
-        <v>264550</v>
+        <v>292055</v>
       </c>
       <c r="D15" s="3">
         <f>SUM(D9:D14)</f>
@@ -7228,7 +7264,7 @@
   <dimension ref="A1:M88"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="134" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="L68" sqref="L68"/>
     </sheetView>
@@ -10261,7 +10297,7 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44:R44"/>
     </sheetView>
   </sheetViews>

--- a/Maintenance may june.xlsx
+++ b/Maintenance may june.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA274AE0-ABAF-4277-914B-E5C82C7C8A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA183B6-3D19-43C5-A37A-100490446692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="270">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -5888,7 +5888,7 @@
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -7414,9 +7414,18 @@
       <c r="D66" s="138">
         <v>794.33333333333303</v>
       </c>
+      <c r="E66" s="139">
+        <v>794</v>
+      </c>
       <c r="F66" s="139">
         <f t="shared" ref="F66:F72" si="2">ROUND(D66-E66,)</f>
-        <v>794</v>
+        <v>0</v>
+      </c>
+      <c r="G66" s="139" t="s">
+        <v>179</v>
+      </c>
+      <c r="H66" s="139" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.4">
@@ -7601,7 +7610,7 @@
   <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7816,8 +7825,8 @@
         <v>202</v>
       </c>
       <c r="C12">
-        <f>7201+6591</f>
-        <v>13792</v>
+        <f>7201+6591+792</f>
+        <v>14584</v>
       </c>
       <c r="D12" s="53">
         <f>111280+0</f>
@@ -7887,7 +7896,7 @@
       </c>
       <c r="C15" s="53">
         <f>SUM(C9:C14)</f>
-        <v>317144</v>
+        <v>317936</v>
       </c>
       <c r="D15" s="53">
         <f>SUM(D9:D14)</f>

--- a/Maintenance may june.xlsx
+++ b/Maintenance may june.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theho\Desktop\oxygengit\maintenance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FA183B6-3D19-43C5-A37A-100490446692}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FDFCCF-AE3D-4A3A-A87E-2864C75ADF9E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="276">
   <si>
     <t xml:space="preserve">S.no </t>
   </si>
@@ -1014,6 +1014,24 @@
   <si>
     <t>only arrears cleared</t>
   </si>
+  <si>
+    <t xml:space="preserve">dg bill remaining </t>
+  </si>
+  <si>
+    <t>by Vishal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">part payment by anand on 22nd may </t>
+  </si>
+  <si>
+    <t>maintenance chunk paid to residential</t>
+  </si>
+  <si>
+    <t>by vishal</t>
+  </si>
+  <si>
+    <t>cash given</t>
+  </si>
 </sst>
 </file>
 
@@ -1022,7 +1040,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d\ mmm\ yy"/>
   </numFmts>
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1292,6 +1310,21 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1391,7 +1424,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1739,6 +1772,11 @@
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Excel Built-in Explanatory Text" xfId="6" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
@@ -2129,7 +2167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P96"/>
   <sheetViews>
-    <sheetView topLeftCell="C64" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="C56" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P71" sqref="P71"/>
     </sheetView>
   </sheetViews>
@@ -5887,8 +5925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G65" sqref="G65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21" x14ac:dyDescent="0.4"/>
@@ -7401,30 +7439,30 @@
         <v>794</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="139" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A66" s="137">
+    <row r="66" spans="1:8" s="147" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A66" s="145">
         <v>120</v>
       </c>
-      <c r="B66" s="138">
-        <v>0</v>
-      </c>
-      <c r="C66" s="138">
+      <c r="B66" s="146">
+        <v>0</v>
+      </c>
+      <c r="C66" s="146">
         <v>794.33333333333303</v>
       </c>
-      <c r="D66" s="138">
+      <c r="D66" s="146">
         <v>794.33333333333303</v>
       </c>
-      <c r="E66" s="139">
+      <c r="E66" s="147">
         <v>794</v>
       </c>
-      <c r="F66" s="139">
+      <c r="F66" s="147">
         <f t="shared" ref="F66:F72" si="2">ROUND(D66-E66,)</f>
         <v>0</v>
       </c>
-      <c r="G66" s="139" t="s">
+      <c r="G66" s="147" t="s">
         <v>179</v>
       </c>
-      <c r="H66" s="139" t="s">
+      <c r="H66" s="147" t="s">
         <v>20</v>
       </c>
     </row>
@@ -7607,10 +7645,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="B8" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7776,12 +7814,12 @@
         <v>198</v>
       </c>
       <c r="C10">
-        <f>14965+11920+19124+8381+3559+27044+12993+10600-8370+6528+1404+22200+2700+9530+11144+10000-13600-18348</f>
-        <v>131774</v>
+        <f>14965+11920+19124+8381+3559+27044+12993+10600-8370+6528+1404+22200+2700+9530+11144+10000-13600-18348-4941-70585</f>
+        <v>56248</v>
       </c>
       <c r="D10" s="53">
-        <f>79115+0</f>
-        <v>79115</v>
+        <f>79115-79115</f>
+        <v>0</v>
       </c>
       <c r="E10" s="57">
         <v>45761</v>
@@ -7896,11 +7934,11 @@
       </c>
       <c r="C15" s="53">
         <f>SUM(C9:C14)</f>
-        <v>317936</v>
+        <v>242410</v>
       </c>
       <c r="D15" s="53">
         <f>SUM(D9:D14)</f>
-        <v>190683</v>
+        <v>111568</v>
       </c>
       <c r="F15" t="s">
         <v>207</v>
@@ -7914,11 +7952,11 @@
       <c r="B16" s="53"/>
       <c r="C16" s="53"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B18" s="53"/>
       <c r="C18" s="53"/>
       <c r="E18" s="57">
@@ -7934,7 +7972,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B19" s="53"/>
       <c r="C19" s="53"/>
       <c r="D19" s="61"/>
@@ -7951,7 +7989,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A20" s="63"/>
       <c r="B20" s="53"/>
       <c r="C20" s="53"/>
@@ -7968,7 +8006,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="63"/>
       <c r="B21" s="53"/>
       <c r="C21" s="53"/>
@@ -7985,7 +8023,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="63"/>
       <c r="B22" s="53"/>
       <c r="C22" s="53"/>
@@ -7996,13 +8034,13 @@
         <v>253</v>
       </c>
       <c r="G22">
-        <v>13699</v>
+        <v>13600</v>
       </c>
       <c r="H22" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
       <c r="E23" s="53" t="s">
@@ -8018,7 +8056,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E24" s="53" t="s">
         <v>258</v>
       </c>
@@ -8032,7 +8070,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E25" s="53" t="s">
         <v>264</v>
       </c>
@@ -8046,7 +8084,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E26" s="53" t="s">
         <v>264</v>
       </c>
@@ -8058,6 +8096,40 @@
       </c>
       <c r="H26" t="s">
         <v>261</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E27" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="F27" t="s">
+        <v>270</v>
+      </c>
+      <c r="G27">
+        <v>4941</v>
+      </c>
+      <c r="H27" t="s">
+        <v>271</v>
+      </c>
+      <c r="I27" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E28" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="F28" t="s">
+        <v>273</v>
+      </c>
+      <c r="G28">
+        <v>149700</v>
+      </c>
+      <c r="H28" t="s">
+        <v>274</v>
+      </c>
+      <c r="I28" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
